--- a/data/trans_orig/SALUD_GEN_PER-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/SALUD_GEN_PER-Estudios-trans_orig.xlsx
@@ -546,7 +546,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Salud general percibida en País Vasco</t>
+          <t>Salud general percibida en País Vasco (tasa de respuesta: 100,0%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -3061,7 +3061,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Salud general percibida en Andalucia</t>
+          <t>Salud general percibida en Andalucia (tasa de respuesta: 100,0%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -5576,7 +5576,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Salud general percibida en C.Valenciana</t>
+          <t>Salud general percibida en C.Valenciana (tasa de respuesta: 99,95%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -8091,7 +8091,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Salud general percibida en Barcelona</t>
+          <t>Salud general percibida en Barcelona (tasa de respuesta: 100,0%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_orig/SALUD_GEN_PER-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/SALUD_GEN_PER-Estudios-trans_orig.xlsx
@@ -736,32 +736,32 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>1831</t>
+          <t>3311</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>960</t>
+          <t>1438</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>3395</t>
+          <t>6858</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>4,35%</t>
+          <t>4,54%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>2,28%</t>
+          <t>1,97%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>8,06%</t>
+          <t>9,39%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -771,32 +771,32 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>6352</t>
+          <t>10938</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>4524</t>
+          <t>7205</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>8750</t>
+          <t>15110</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>9,12%</t>
+          <t>9,4%</t>
         </is>
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>6,49%</t>
+          <t>6,19%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>12,56%</t>
+          <t>12,99%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
@@ -806,32 +806,32 @@
       </c>
       <c r="R4" s="2" t="inlineStr">
         <is>
-          <t>8182</t>
+          <t>14249</t>
         </is>
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>6102</t>
+          <t>10055</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>10861</t>
+          <t>20063</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
         <is>
-          <t>7,32%</t>
+          <t>7,52%</t>
         </is>
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>5,46%</t>
+          <t>5,31%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>9,72%</t>
+          <t>10,6%</t>
         </is>
       </c>
     </row>
@@ -849,32 +849,32 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>10643</t>
+          <t>17251</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>8307</t>
+          <t>13030</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>13333</t>
+          <t>22097</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>25,28%</t>
+          <t>23,63%</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>19,73%</t>
+          <t>17,85%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>31,67%</t>
+          <t>30,27%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -884,32 +884,32 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>21729</t>
+          <t>34677</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>18578</t>
+          <t>28886</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>25390</t>
+          <t>41440</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>31,18%</t>
+          <t>29,8%</t>
         </is>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>26,66%</t>
+          <t>24,83%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>36,44%</t>
+          <t>35,62%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
@@ -919,32 +919,32 @@
       </c>
       <c r="R5" s="2" t="inlineStr">
         <is>
-          <t>32373</t>
+          <t>51928</t>
         </is>
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>28115</t>
+          <t>44971</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>36581</t>
+          <t>60058</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
         <is>
-          <t>28,96%</t>
+          <t>27,42%</t>
         </is>
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>25,15%</t>
+          <t>23,75%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>32,73%</t>
+          <t>31,72%</t>
         </is>
       </c>
     </row>
@@ -962,32 +962,32 @@
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>19915</t>
+          <t>32985</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>16829</t>
+          <t>27257</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>22726</t>
+          <t>38810</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>47,31%</t>
+          <t>45,18%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>39,98%</t>
+          <t>37,34%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>53,99%</t>
+          <t>53,16%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
@@ -997,32 +997,32 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>27243</t>
+          <t>43937</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>24000</t>
+          <t>37683</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>30945</t>
+          <t>50571</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>39,1%</t>
+          <t>37,76%</t>
         </is>
       </c>
       <c r="O6" s="2" t="inlineStr">
         <is>
-          <t>34,44%</t>
+          <t>32,39%</t>
         </is>
       </c>
       <c r="P6" s="2" t="inlineStr">
         <is>
-          <t>44,41%</t>
+          <t>43,47%</t>
         </is>
       </c>
       <c r="Q6" s="2" t="inlineStr">
@@ -1032,32 +1032,32 @@
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
-          <t>47158</t>
+          <t>76922</t>
         </is>
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>42798</t>
+          <t>68049</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>51731</t>
+          <t>85687</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
         <is>
-          <t>42,19%</t>
+          <t>40,62%</t>
         </is>
       </c>
       <c r="V6" s="2" t="inlineStr">
         <is>
-          <t>38,29%</t>
+          <t>35,94%</t>
         </is>
       </c>
       <c r="W6" s="2" t="inlineStr">
         <is>
-          <t>46,28%</t>
+          <t>45,25%</t>
         </is>
       </c>
     </row>
@@ -1075,32 +1075,32 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>9707</t>
+          <t>19457</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>7499</t>
+          <t>14734</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>12283</t>
+          <t>25427</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>23,06%</t>
+          <t>26,65%</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>17,81%</t>
+          <t>20,18%</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>29,18%</t>
+          <t>34,83%</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -1110,32 +1110,32 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>14358</t>
+          <t>26797</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>11559</t>
+          <t>21125</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>17267</t>
+          <t>32977</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>20,6%</t>
+          <t>23,03%</t>
         </is>
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>16,59%</t>
+          <t>18,16%</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>24,78%</t>
+          <t>28,34%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
@@ -1145,32 +1145,32 @@
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
-          <t>24065</t>
+          <t>46254</t>
         </is>
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>20173</t>
+          <t>38173</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>28178</t>
+          <t>54403</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
         <is>
-          <t>21,53%</t>
+          <t>24,43%</t>
         </is>
       </c>
       <c r="V7" s="2" t="inlineStr">
         <is>
-          <t>18,05%</t>
+          <t>20,16%</t>
         </is>
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
-          <t>25,21%</t>
+          <t>28,73%</t>
         </is>
       </c>
     </row>
@@ -1188,17 +1188,17 @@
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>42096</t>
+          <t>73004</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>42096</t>
+          <t>73004</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>42096</t>
+          <t>73004</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -1223,17 +1223,17 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>69682</t>
+          <t>116349</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>69682</t>
+          <t>116349</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>69682</t>
+          <t>116349</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
@@ -1258,17 +1258,17 @@
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
-          <t>111778</t>
+          <t>189353</t>
         </is>
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>111778</t>
+          <t>189353</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>111778</t>
+          <t>189353</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
@@ -1305,32 +1305,32 @@
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>7640</t>
+          <t>12164</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>5385</t>
+          <t>8533</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>10503</t>
+          <t>17760</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>3,35%</t>
+          <t>2,6%</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>2,36%</t>
+          <t>1,83%</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>4,6%</t>
+          <t>3,8%</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -1340,32 +1340,32 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>10471</t>
+          <t>16638</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>7761</t>
+          <t>12227</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>13504</t>
+          <t>22476</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>4,48%</t>
+          <t>3,69%</t>
         </is>
       </c>
       <c r="O9" s="2" t="inlineStr">
         <is>
-          <t>3,32%</t>
+          <t>2,71%</t>
         </is>
       </c>
       <c r="P9" s="2" t="inlineStr">
         <is>
-          <t>5,78%</t>
+          <t>4,98%</t>
         </is>
       </c>
       <c r="Q9" s="2" t="inlineStr">
@@ -1375,32 +1375,32 @@
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t>18111</t>
+          <t>28802</t>
         </is>
       </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>14782</t>
+          <t>23066</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>22020</t>
+          <t>36415</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
         <is>
-          <t>3,92%</t>
+          <t>3,14%</t>
         </is>
       </c>
       <c r="V9" s="2" t="inlineStr">
         <is>
-          <t>3,2%</t>
+          <t>2,51%</t>
         </is>
       </c>
       <c r="W9" s="2" t="inlineStr">
         <is>
-          <t>4,77%</t>
+          <t>3,97%</t>
         </is>
       </c>
     </row>
@@ -1418,32 +1418,32 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>33824</t>
+          <t>65109</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>29099</t>
+          <t>55169</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>38465</t>
+          <t>75287</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>14,81%</t>
+          <t>13,94%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>12,74%</t>
+          <t>11,81%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>16,84%</t>
+          <t>16,11%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
@@ -1453,32 +1453,32 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>46021</t>
+          <t>77289</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>41161</t>
+          <t>66609</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>51672</t>
+          <t>88220</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>19,7%</t>
+          <t>17,13%</t>
         </is>
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>17,62%</t>
+          <t>14,77%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>22,12%</t>
+          <t>19,56%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
@@ -1488,32 +1488,32 @@
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>79845</t>
+          <t>142398</t>
         </is>
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>72949</t>
+          <t>129036</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>86495</t>
+          <t>158170</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
         <is>
-          <t>17,28%</t>
+          <t>15,51%</t>
         </is>
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>15,79%</t>
+          <t>14,05%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>18,72%</t>
+          <t>17,22%</t>
         </is>
       </c>
     </row>
@@ -1531,32 +1531,32 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>103604</t>
+          <t>195706</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>97682</t>
+          <t>181418</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>111059</t>
+          <t>211734</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>45,36%</t>
+          <t>41,89%</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>42,77%</t>
+          <t>38,83%</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>48,63%</t>
+          <t>45,32%</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1566,32 +1566,32 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>101633</t>
+          <t>185608</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>94861</t>
+          <t>172602</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>107627</t>
+          <t>201572</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>43,5%</t>
+          <t>41,14%</t>
         </is>
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>40,6%</t>
+          <t>38,26%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>46,07%</t>
+          <t>44,68%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
@@ -1601,32 +1601,32 @@
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>205236</t>
+          <t>381314</t>
         </is>
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>195088</t>
+          <t>360635</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>213839</t>
+          <t>403565</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
         <is>
-          <t>44,42%</t>
+          <t>41,52%</t>
         </is>
       </c>
       <c r="V11" s="2" t="inlineStr">
         <is>
-          <t>42,23%</t>
+          <t>39,27%</t>
         </is>
       </c>
       <c r="W11" s="2" t="inlineStr">
         <is>
-          <t>46,28%</t>
+          <t>43,95%</t>
         </is>
       </c>
     </row>
@@ -1644,32 +1644,32 @@
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>83330</t>
+          <t>194219</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>76589</t>
+          <t>178139</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>89880</t>
+          <t>209198</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>36,48%</t>
+          <t>41,57%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>33,53%</t>
+          <t>38,13%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>39,35%</t>
+          <t>44,78%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
@@ -1679,32 +1679,32 @@
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>75496</t>
+          <t>171579</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>69766</t>
+          <t>157462</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>81797</t>
+          <t>185991</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>32,32%</t>
+          <t>38,03%</t>
         </is>
       </c>
       <c r="O12" s="2" t="inlineStr">
         <is>
-          <t>29,86%</t>
+          <t>34,91%</t>
         </is>
       </c>
       <c r="P12" s="2" t="inlineStr">
         <is>
-          <t>35,01%</t>
+          <t>41,23%</t>
         </is>
       </c>
       <c r="Q12" s="2" t="inlineStr">
@@ -1714,32 +1714,32 @@
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>158826</t>
+          <t>365798</t>
         </is>
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>150759</t>
+          <t>343960</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>169025</t>
+          <t>386677</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
         <is>
-          <t>34,38%</t>
+          <t>39,83%</t>
         </is>
       </c>
       <c r="V12" s="2" t="inlineStr">
         <is>
-          <t>32,63%</t>
+          <t>37,46%</t>
         </is>
       </c>
       <c r="W12" s="2" t="inlineStr">
         <is>
-          <t>36,58%</t>
+          <t>42,11%</t>
         </is>
       </c>
     </row>
@@ -1757,17 +1757,17 @@
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>228398</t>
+          <t>467198</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>228398</t>
+          <t>467198</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>228398</t>
+          <t>467198</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1792,17 +1792,17 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>233621</t>
+          <t>451114</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>233621</t>
+          <t>451114</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>233621</t>
+          <t>451114</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
@@ -1827,17 +1827,17 @@
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>462019</t>
+          <t>918312</t>
         </is>
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>462019</t>
+          <t>918312</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>462019</t>
+          <t>918312</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
@@ -1874,32 +1874,32 @@
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>1735</t>
+          <t>2142</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>806</t>
+          <t>948</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>3330</t>
+          <t>4113</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>2,12%</t>
+          <t>1,04%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>0,99%</t>
+          <t>0,46%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>4,08%</t>
+          <t>2,0%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
@@ -1909,32 +1909,32 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>1796</t>
+          <t>3043</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>893</t>
+          <t>1472</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>3407</t>
+          <t>6074</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>1,66%</t>
+          <t>1,21%</t>
         </is>
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>0,83%</t>
+          <t>0,58%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>3,16%</t>
+          <t>2,41%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
@@ -1944,32 +1944,32 @@
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>3532</t>
+          <t>5185</t>
         </is>
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>2143</t>
+          <t>3043</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>5434</t>
+          <t>8279</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
         <is>
-          <t>1,86%</t>
+          <t>1,13%</t>
         </is>
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>1,13%</t>
+          <t>0,66%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>2,87%</t>
+          <t>1,81%</t>
         </is>
       </c>
     </row>
@@ -1987,32 +1987,32 @@
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>7712</t>
+          <t>17412</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>5537</t>
+          <t>11563</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>10320</t>
+          <t>25343</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>9,44%</t>
+          <t>8,46%</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>6,78%</t>
+          <t>5,62%</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>12,63%</t>
+          <t>12,31%</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
@@ -2022,32 +2022,32 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>10869</t>
+          <t>20211</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>8451</t>
+          <t>14760</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>14189</t>
+          <t>27094</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>10,07%</t>
+          <t>8,01%</t>
         </is>
       </c>
       <c r="O15" s="2" t="inlineStr">
         <is>
-          <t>7,83%</t>
+          <t>5,85%</t>
         </is>
       </c>
       <c r="P15" s="2" t="inlineStr">
         <is>
-          <t>13,14%</t>
+          <t>10,74%</t>
         </is>
       </c>
       <c r="Q15" s="2" t="inlineStr">
@@ -2057,32 +2057,32 @@
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>18582</t>
+          <t>37623</t>
         </is>
       </c>
       <c r="S15" s="2" t="inlineStr">
         <is>
-          <t>15185</t>
+          <t>29671</t>
         </is>
       </c>
       <c r="T15" s="2" t="inlineStr">
         <is>
-          <t>22557</t>
+          <t>47944</t>
         </is>
       </c>
       <c r="U15" s="2" t="inlineStr">
         <is>
-          <t>9,8%</t>
+          <t>8,21%</t>
         </is>
       </c>
       <c r="V15" s="2" t="inlineStr">
         <is>
-          <t>8,01%</t>
+          <t>6,47%</t>
         </is>
       </c>
       <c r="W15" s="2" t="inlineStr">
         <is>
-          <t>11,89%</t>
+          <t>10,46%</t>
         </is>
       </c>
     </row>
@@ -2100,32 +2100,32 @@
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>30631</t>
+          <t>73469</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>26450</t>
+          <t>63537</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>34372</t>
+          <t>84121</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>37,5%</t>
+          <t>35,69%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>32,38%</t>
+          <t>30,86%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>42,08%</t>
+          <t>40,86%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
@@ -2135,32 +2135,32 @@
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>46318</t>
+          <t>101638</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>41101</t>
+          <t>90510</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>50284</t>
+          <t>112694</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>42,91%</t>
+          <t>40,28%</t>
         </is>
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>38,08%</t>
+          <t>35,87%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>46,58%</t>
+          <t>44,66%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
@@ -2170,32 +2170,32 @@
       </c>
       <c r="R16" s="2" t="inlineStr">
         <is>
-          <t>76949</t>
+          <t>175107</t>
         </is>
       </c>
       <c r="S16" s="2" t="inlineStr">
         <is>
-          <t>71543</t>
+          <t>159395</t>
         </is>
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>83494</t>
+          <t>191632</t>
         </is>
       </c>
       <c r="U16" s="2" t="inlineStr">
         <is>
-          <t>40,58%</t>
+          <t>38,21%</t>
         </is>
       </c>
       <c r="V16" s="2" t="inlineStr">
         <is>
-          <t>37,73%</t>
+          <t>34,78%</t>
         </is>
       </c>
       <c r="W16" s="2" t="inlineStr">
         <is>
-          <t>44,03%</t>
+          <t>41,82%</t>
         </is>
       </c>
     </row>
@@ -2213,32 +2213,32 @@
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>41614</t>
+          <t>112857</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>37784</t>
+          <t>100937</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>45681</t>
+          <t>123947</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>50,94%</t>
+          <t>54,82%</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>46,25%</t>
+          <t>49,03%</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>55,92%</t>
+          <t>60,2%</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -2248,32 +2248,32 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>48960</t>
+          <t>127462</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>44997</t>
+          <t>115198</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>53781</t>
+          <t>138703</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>45,36%</t>
+          <t>50,51%</t>
         </is>
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>41,69%</t>
+          <t>45,65%</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>49,82%</t>
+          <t>54,96%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
@@ -2283,32 +2283,32 @@
       </c>
       <c r="R17" s="2" t="inlineStr">
         <is>
-          <t>90573</t>
+          <t>240319</t>
         </is>
       </c>
       <c r="S17" s="2" t="inlineStr">
         <is>
-          <t>83995</t>
+          <t>224404</t>
         </is>
       </c>
       <c r="T17" s="2" t="inlineStr">
         <is>
-          <t>96243</t>
+          <t>256841</t>
         </is>
       </c>
       <c r="U17" s="2" t="inlineStr">
         <is>
-          <t>47,76%</t>
+          <t>52,44%</t>
         </is>
       </c>
       <c r="V17" s="2" t="inlineStr">
         <is>
-          <t>44,29%</t>
+          <t>48,97%</t>
         </is>
       </c>
       <c r="W17" s="2" t="inlineStr">
         <is>
-          <t>50,75%</t>
+          <t>56,05%</t>
         </is>
       </c>
     </row>
@@ -2326,17 +2326,17 @@
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>81692</t>
+          <t>205880</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>81692</t>
+          <t>205880</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>81692</t>
+          <t>205880</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -2361,17 +2361,17 @@
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>107944</t>
+          <t>252354</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>107944</t>
+          <t>252354</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>107944</t>
+          <t>252354</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
@@ -2396,17 +2396,17 @@
       </c>
       <c r="R18" s="2" t="inlineStr">
         <is>
-          <t>189635</t>
+          <t>458234</t>
         </is>
       </c>
       <c r="S18" s="2" t="inlineStr">
         <is>
-          <t>189635</t>
+          <t>458234</t>
         </is>
       </c>
       <c r="T18" s="2" t="inlineStr">
         <is>
-          <t>189635</t>
+          <t>458234</t>
         </is>
       </c>
       <c r="U18" s="2" t="inlineStr">
@@ -2443,32 +2443,32 @@
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>11206</t>
+          <t>17617</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>8473</t>
+          <t>13202</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>14314</t>
+          <t>23884</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>3,18%</t>
+          <t>2,36%</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>2,41%</t>
+          <t>1,77%</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>4,06%</t>
+          <t>3,2%</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
@@ -2478,32 +2478,32 @@
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>18619</t>
+          <t>30618</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>15385</t>
+          <t>23844</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>23072</t>
+          <t>37342</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>4,53%</t>
+          <t>3,73%</t>
         </is>
       </c>
       <c r="O19" s="2" t="inlineStr">
         <is>
-          <t>3,74%</t>
+          <t>2,91%</t>
         </is>
       </c>
       <c r="P19" s="2" t="inlineStr">
         <is>
-          <t>5,61%</t>
+          <t>4,55%</t>
         </is>
       </c>
       <c r="Q19" s="2" t="inlineStr">
@@ -2513,32 +2513,32 @@
       </c>
       <c r="R19" s="2" t="inlineStr">
         <is>
-          <t>29825</t>
+          <t>48235</t>
         </is>
       </c>
       <c r="S19" s="2" t="inlineStr">
         <is>
-          <t>25402</t>
+          <t>40390</t>
         </is>
       </c>
       <c r="T19" s="2" t="inlineStr">
         <is>
-          <t>35179</t>
+          <t>58139</t>
         </is>
       </c>
       <c r="U19" s="2" t="inlineStr">
         <is>
-          <t>3,91%</t>
+          <t>3,08%</t>
         </is>
       </c>
       <c r="V19" s="2" t="inlineStr">
         <is>
-          <t>3,33%</t>
+          <t>2,58%</t>
         </is>
       </c>
       <c r="W19" s="2" t="inlineStr">
         <is>
-          <t>4,61%</t>
+          <t>3,71%</t>
         </is>
       </c>
     </row>
@@ -2556,32 +2556,32 @@
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>52180</t>
+          <t>99772</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>46290</t>
+          <t>87539</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>58307</t>
+          <t>114418</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>14,82%</t>
+          <t>13,37%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>13,14%</t>
+          <t>11,73%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>16,56%</t>
+          <t>15,34%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
@@ -2591,32 +2591,32 @@
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>78620</t>
+          <t>132178</t>
         </is>
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>71970</t>
+          <t>118986</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>86537</t>
+          <t>147340</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
         <is>
-          <t>19,12%</t>
+          <t>16,12%</t>
         </is>
       </c>
       <c r="O20" s="2" t="inlineStr">
         <is>
-          <t>17,5%</t>
+          <t>14,51%</t>
         </is>
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>21,04%</t>
+          <t>17,97%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
@@ -2626,32 +2626,32 @@
       </c>
       <c r="R20" s="2" t="inlineStr">
         <is>
-          <t>130799</t>
+          <t>231949</t>
         </is>
       </c>
       <c r="S20" s="2" t="inlineStr">
         <is>
-          <t>121060</t>
+          <t>211658</t>
         </is>
       </c>
       <c r="T20" s="2" t="inlineStr">
         <is>
-          <t>140690</t>
+          <t>251339</t>
         </is>
       </c>
       <c r="U20" s="2" t="inlineStr">
         <is>
-          <t>17,13%</t>
+          <t>14,81%</t>
         </is>
       </c>
       <c r="V20" s="2" t="inlineStr">
         <is>
-          <t>15,86%</t>
+          <t>13,52%</t>
         </is>
       </c>
       <c r="W20" s="2" t="inlineStr">
         <is>
-          <t>18,43%</t>
+          <t>16,05%</t>
         </is>
       </c>
     </row>
@@ -2669,32 +2669,32 @@
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>154149</t>
+          <t>302160</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>145429</t>
+          <t>283393</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>162222</t>
+          <t>321934</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>43,77%</t>
+          <t>40,5%</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>41,29%</t>
+          <t>37,98%</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>46,06%</t>
+          <t>43,15%</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
@@ -2704,32 +2704,32 @@
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>175194</t>
+          <t>331183</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>166792</t>
+          <t>312037</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>184892</t>
+          <t>351403</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>42,6%</t>
+          <t>40,4%</t>
         </is>
       </c>
       <c r="O21" s="2" t="inlineStr">
         <is>
-          <t>40,56%</t>
+          <t>38,06%</t>
         </is>
       </c>
       <c r="P21" s="2" t="inlineStr">
         <is>
-          <t>44,96%</t>
+          <t>42,86%</t>
         </is>
       </c>
       <c r="Q21" s="2" t="inlineStr">
@@ -2739,32 +2739,32 @@
       </c>
       <c r="R21" s="2" t="inlineStr">
         <is>
-          <t>329343</t>
+          <t>633342</t>
         </is>
       </c>
       <c r="S21" s="2" t="inlineStr">
         <is>
-          <t>317372</t>
+          <t>607521</t>
         </is>
       </c>
       <c r="T21" s="2" t="inlineStr">
         <is>
-          <t>340793</t>
+          <t>663260</t>
         </is>
       </c>
       <c r="U21" s="2" t="inlineStr">
         <is>
-          <t>43,14%</t>
+          <t>40,45%</t>
         </is>
       </c>
       <c r="V21" s="2" t="inlineStr">
         <is>
-          <t>41,57%</t>
+          <t>38,8%</t>
         </is>
       </c>
       <c r="W21" s="2" t="inlineStr">
         <is>
-          <t>44,64%</t>
+          <t>42,36%</t>
         </is>
       </c>
     </row>
@@ -2782,32 +2782,32 @@
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>134650</t>
+          <t>326533</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>127048</t>
+          <t>305851</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>142941</t>
+          <t>345200</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>38,23%</t>
+          <t>43,77%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>36,07%</t>
+          <t>40,99%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>40,59%</t>
+          <t>46,27%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
@@ -2817,32 +2817,32 @@
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>138813</t>
+          <t>325839</t>
         </is>
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>129935</t>
+          <t>306339</t>
         </is>
       </c>
       <c r="M22" s="2" t="inlineStr">
         <is>
-          <t>147164</t>
+          <t>348103</t>
         </is>
       </c>
       <c r="N22" s="2" t="inlineStr">
         <is>
-          <t>33,75%</t>
+          <t>39,75%</t>
         </is>
       </c>
       <c r="O22" s="2" t="inlineStr">
         <is>
-          <t>31,6%</t>
+          <t>37,37%</t>
         </is>
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>35,78%</t>
+          <t>42,46%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
@@ -2852,32 +2852,32 @@
       </c>
       <c r="R22" s="2" t="inlineStr">
         <is>
-          <t>273464</t>
+          <t>652372</t>
         </is>
       </c>
       <c r="S22" s="2" t="inlineStr">
         <is>
-          <t>262637</t>
+          <t>623761</t>
         </is>
       </c>
       <c r="T22" s="2" t="inlineStr">
         <is>
-          <t>286160</t>
+          <t>679878</t>
         </is>
       </c>
       <c r="U22" s="2" t="inlineStr">
         <is>
-          <t>35,82%</t>
+          <t>41,66%</t>
         </is>
       </c>
       <c r="V22" s="2" t="inlineStr">
         <is>
-          <t>34,4%</t>
+          <t>39,83%</t>
         </is>
       </c>
       <c r="W22" s="2" t="inlineStr">
         <is>
-          <t>37,48%</t>
+          <t>43,42%</t>
         </is>
       </c>
     </row>
@@ -2895,17 +2895,17 @@
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>352186</t>
+          <t>746081</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>352186</t>
+          <t>746081</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>352186</t>
+          <t>746081</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
@@ -2930,17 +2930,17 @@
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>411246</t>
+          <t>819818</t>
         </is>
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>411246</t>
+          <t>819818</t>
         </is>
       </c>
       <c r="M23" s="2" t="inlineStr">
         <is>
-          <t>411246</t>
+          <t>819818</t>
         </is>
       </c>
       <c r="N23" s="2" t="inlineStr">
@@ -2965,17 +2965,17 @@
       </c>
       <c r="R23" s="2" t="inlineStr">
         <is>
-          <t>763432</t>
+          <t>1565899</t>
         </is>
       </c>
       <c r="S23" s="2" t="inlineStr">
         <is>
-          <t>763432</t>
+          <t>1565899</t>
         </is>
       </c>
       <c r="T23" s="2" t="inlineStr">
         <is>
-          <t>763432</t>
+          <t>1565899</t>
         </is>
       </c>
       <c r="U23" s="2" t="inlineStr">
@@ -3256,12 +3256,12 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>17842</t>
+          <t>17460</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>33474</t>
+          <t>33716</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -3271,12 +3271,12 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>7,78%</t>
+          <t>7,61%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>14,6%</t>
+          <t>14,7%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -3291,12 +3291,12 @@
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>49970</t>
+          <t>49716</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>71634</t>
+          <t>71394</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
@@ -3306,12 +3306,12 @@
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>12,54%</t>
+          <t>12,47%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>17,97%</t>
+          <t>17,91%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
@@ -3326,12 +3326,12 @@
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>71795</t>
+          <t>72359</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>98425</t>
+          <t>99273</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
@@ -3341,12 +3341,12 @@
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>11,44%</t>
+          <t>11,53%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>15,68%</t>
+          <t>15,81%</t>
         </is>
       </c>
     </row>
@@ -3369,12 +3369,12 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>55934</t>
+          <t>55547</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>81424</t>
+          <t>79828</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -3384,12 +3384,12 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>24,39%</t>
+          <t>24,23%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>35,51%</t>
+          <t>34,81%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -3404,12 +3404,12 @@
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>128082</t>
+          <t>126446</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>157575</t>
+          <t>156935</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -3419,12 +3419,12 @@
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>32,14%</t>
+          <t>31,73%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>39,54%</t>
+          <t>39,38%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
@@ -3439,12 +3439,12 @@
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>189285</t>
+          <t>189111</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>229615</t>
+          <t>230241</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
@@ -3454,12 +3454,12 @@
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>30,15%</t>
+          <t>30,12%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>36,57%</t>
+          <t>36,67%</t>
         </is>
       </c>
     </row>
@@ -3482,12 +3482,12 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>77560</t>
+          <t>78462</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>105762</t>
+          <t>106259</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -3497,12 +3497,12 @@
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>33,83%</t>
+          <t>34,22%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>46,12%</t>
+          <t>46,34%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
@@ -3517,12 +3517,12 @@
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>139419</t>
+          <t>138784</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>171435</t>
+          <t>171507</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
@@ -3532,12 +3532,12 @@
       </c>
       <c r="O6" s="2" t="inlineStr">
         <is>
-          <t>34,98%</t>
+          <t>34,82%</t>
         </is>
       </c>
       <c r="P6" s="2" t="inlineStr">
         <is>
-          <t>43,02%</t>
+          <t>43,03%</t>
         </is>
       </c>
       <c r="Q6" s="2" t="inlineStr">
@@ -3552,12 +3552,12 @@
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>227737</t>
+          <t>227266</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>268573</t>
+          <t>268732</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
@@ -3567,12 +3567,12 @@
       </c>
       <c r="V6" s="2" t="inlineStr">
         <is>
-          <t>36,27%</t>
+          <t>36,2%</t>
         </is>
       </c>
       <c r="W6" s="2" t="inlineStr">
         <is>
-          <t>42,78%</t>
+          <t>42,8%</t>
         </is>
       </c>
     </row>
@@ -3595,12 +3595,12 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>33995</t>
+          <t>32969</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>59820</t>
+          <t>58561</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -3610,12 +3610,12 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>14,83%</t>
+          <t>14,38%</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>26,09%</t>
+          <t>25,54%</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -3630,12 +3630,12 @@
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>31076</t>
+          <t>31566</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>54196</t>
+          <t>53598</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
@@ -3645,12 +3645,12 @@
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>7,8%</t>
+          <t>7,92%</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>13,6%</t>
+          <t>13,45%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
@@ -3665,12 +3665,12 @@
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>69315</t>
+          <t>69177</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>103901</t>
+          <t>105755</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
@@ -3680,12 +3680,12 @@
       </c>
       <c r="V7" s="2" t="inlineStr">
         <is>
-          <t>11,04%</t>
+          <t>11,02%</t>
         </is>
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
-          <t>16,55%</t>
+          <t>16,84%</t>
         </is>
       </c>
     </row>
@@ -3825,12 +3825,12 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>16147</t>
+          <t>15041</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>42698</t>
+          <t>41483</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -3840,12 +3840,12 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>1,15%</t>
+          <t>1,07%</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>3,03%</t>
+          <t>2,94%</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -3860,12 +3860,12 @@
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>17275</t>
+          <t>17480</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>41026</t>
+          <t>40335</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -3875,12 +3875,12 @@
       </c>
       <c r="O9" s="2" t="inlineStr">
         <is>
-          <t>1,25%</t>
+          <t>1,26%</t>
         </is>
       </c>
       <c r="P9" s="2" t="inlineStr">
         <is>
-          <t>2,96%</t>
+          <t>2,91%</t>
         </is>
       </c>
       <c r="Q9" s="2" t="inlineStr">
@@ -3895,12 +3895,12 @@
       </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>39434</t>
+          <t>40501</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>75094</t>
+          <t>76611</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
@@ -3910,12 +3910,12 @@
       </c>
       <c r="V9" s="2" t="inlineStr">
         <is>
-          <t>1,41%</t>
+          <t>1,45%</t>
         </is>
       </c>
       <c r="W9" s="2" t="inlineStr">
         <is>
-          <t>2,69%</t>
+          <t>2,74%</t>
         </is>
       </c>
     </row>
@@ -3938,12 +3938,12 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>78529</t>
+          <t>81200</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>182575</t>
+          <t>183325</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -3953,12 +3953,12 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>5,57%</t>
+          <t>5,76%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>12,95%</t>
+          <t>13,01%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
@@ -3973,12 +3973,12 @@
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>116297</t>
+          <t>108758</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>224284</t>
+          <t>219633</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
@@ -3988,12 +3988,12 @@
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>8,39%</t>
+          <t>7,84%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>16,18%</t>
+          <t>15,84%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
@@ -4008,12 +4008,12 @@
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>237819</t>
+          <t>229383</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>388348</t>
+          <t>383949</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
@@ -4023,12 +4023,12 @@
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>8,51%</t>
+          <t>8,2%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>13,89%</t>
+          <t>13,73%</t>
         </is>
       </c>
     </row>
@@ -4051,12 +4051,12 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>583569</t>
+          <t>582714</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>1035179</t>
+          <t>1021766</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -4066,12 +4066,12 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>41,41%</t>
+          <t>41,35%</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>73,45%</t>
+          <t>72,5%</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -4086,12 +4086,12 @@
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>655502</t>
+          <t>661202</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>1002785</t>
+          <t>1038876</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
@@ -4101,12 +4101,12 @@
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>47,28%</t>
+          <t>47,69%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>72,33%</t>
+          <t>74,93%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
@@ -4121,12 +4121,12 @@
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>1288547</t>
+          <t>1304438</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>1876895</t>
+          <t>1895500</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
@@ -4136,12 +4136,12 @@
       </c>
       <c r="V11" s="2" t="inlineStr">
         <is>
-          <t>46,09%</t>
+          <t>46,66%</t>
         </is>
       </c>
       <c r="W11" s="2" t="inlineStr">
         <is>
-          <t>67,13%</t>
+          <t>67,8%</t>
         </is>
       </c>
     </row>
@@ -4164,12 +4164,12 @@
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>265413</t>
+          <t>290688</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>621124</t>
+          <t>621338</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -4179,12 +4179,12 @@
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>18,83%</t>
+          <t>20,63%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>44,07%</t>
+          <t>44,09%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
@@ -4199,12 +4199,12 @@
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>239852</t>
+          <t>224233</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>479306</t>
+          <t>474160</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
@@ -4214,12 +4214,12 @@
       </c>
       <c r="O12" s="2" t="inlineStr">
         <is>
-          <t>17,3%</t>
+          <t>16,17%</t>
         </is>
       </c>
       <c r="P12" s="2" t="inlineStr">
         <is>
-          <t>34,57%</t>
+          <t>34,2%</t>
         </is>
       </c>
       <c r="Q12" s="2" t="inlineStr">
@@ -4234,12 +4234,12 @@
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>653661</t>
+          <t>646559</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>1060922</t>
+          <t>1054009</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
@@ -4249,12 +4249,12 @@
       </c>
       <c r="V12" s="2" t="inlineStr">
         <is>
-          <t>23,38%</t>
+          <t>23,13%</t>
         </is>
       </c>
       <c r="W12" s="2" t="inlineStr">
         <is>
-          <t>37,95%</t>
+          <t>37,7%</t>
         </is>
       </c>
     </row>
@@ -4394,12 +4394,12 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>3903</t>
+          <t>4053</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>14537</t>
+          <t>14333</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -4409,12 +4409,12 @@
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>0,85%</t>
+          <t>0,88%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>3,16%</t>
+          <t>3,12%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
@@ -4429,12 +4429,12 @@
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>5853</t>
+          <t>5572</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>14826</t>
+          <t>14543</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
@@ -4444,12 +4444,12 @@
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>1,32%</t>
+          <t>1,26%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>3,34%</t>
+          <t>3,28%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
@@ -4464,12 +4464,12 @@
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>11285</t>
+          <t>11470</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>25666</t>
+          <t>25417</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
@@ -4479,12 +4479,12 @@
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>1,25%</t>
+          <t>1,27%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>2,84%</t>
+          <t>2,81%</t>
         </is>
       </c>
     </row>
@@ -4507,12 +4507,12 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>32129</t>
+          <t>31920</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>57470</t>
+          <t>57112</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -4522,12 +4522,12 @@
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>6,99%</t>
+          <t>6,94%</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>12,5%</t>
+          <t>12,42%</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
@@ -4542,12 +4542,12 @@
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>33804</t>
+          <t>33158</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>53982</t>
+          <t>53123</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -4557,12 +4557,12 @@
       </c>
       <c r="O15" s="2" t="inlineStr">
         <is>
-          <t>7,62%</t>
+          <t>7,48%</t>
         </is>
       </c>
       <c r="P15" s="2" t="inlineStr">
         <is>
-          <t>12,18%</t>
+          <t>11,98%</t>
         </is>
       </c>
       <c r="Q15" s="2" t="inlineStr">
@@ -4577,12 +4577,12 @@
       </c>
       <c r="S15" s="2" t="inlineStr">
         <is>
-          <t>70590</t>
+          <t>71561</t>
         </is>
       </c>
       <c r="T15" s="2" t="inlineStr">
         <is>
-          <t>103027</t>
+          <t>102698</t>
         </is>
       </c>
       <c r="U15" s="2" t="inlineStr">
@@ -4592,12 +4592,12 @@
       </c>
       <c r="V15" s="2" t="inlineStr">
         <is>
-          <t>7,82%</t>
+          <t>7,92%</t>
         </is>
       </c>
       <c r="W15" s="2" t="inlineStr">
         <is>
-          <t>11,41%</t>
+          <t>11,37%</t>
         </is>
       </c>
     </row>
@@ -4620,12 +4620,12 @@
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>200912</t>
+          <t>199641</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>246555</t>
+          <t>245335</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -4635,12 +4635,12 @@
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>43,7%</t>
+          <t>43,42%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>53,62%</t>
+          <t>53,36%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
@@ -4655,12 +4655,12 @@
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>184388</t>
+          <t>186707</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>222386</t>
+          <t>223560</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
@@ -4670,12 +4670,12 @@
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>41,59%</t>
+          <t>42,11%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>50,16%</t>
+          <t>50,42%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
@@ -4690,12 +4690,12 @@
       </c>
       <c r="S16" s="2" t="inlineStr">
         <is>
-          <t>398089</t>
+          <t>398678</t>
         </is>
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>458697</t>
+          <t>456345</t>
         </is>
       </c>
       <c r="U16" s="2" t="inlineStr">
@@ -4705,12 +4705,12 @@
       </c>
       <c r="V16" s="2" t="inlineStr">
         <is>
-          <t>44,08%</t>
+          <t>44,14%</t>
         </is>
       </c>
       <c r="W16" s="2" t="inlineStr">
         <is>
-          <t>50,79%</t>
+          <t>50,53%</t>
         </is>
       </c>
     </row>
@@ -4733,12 +4733,12 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>165034</t>
+          <t>162423</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>209461</t>
+          <t>208548</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -4748,12 +4748,12 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>35,89%</t>
+          <t>35,32%</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>45,55%</t>
+          <t>45,36%</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -4768,12 +4768,12 @@
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>169653</t>
+          <t>167200</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>206079</t>
+          <t>205511</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
@@ -4783,12 +4783,12 @@
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>38,26%</t>
+          <t>37,71%</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>46,48%</t>
+          <t>46,35%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
@@ -4803,12 +4803,12 @@
       </c>
       <c r="S17" s="2" t="inlineStr">
         <is>
-          <t>342343</t>
+          <t>345609</t>
         </is>
       </c>
       <c r="T17" s="2" t="inlineStr">
         <is>
-          <t>403147</t>
+          <t>401997</t>
         </is>
       </c>
       <c r="U17" s="2" t="inlineStr">
@@ -4818,12 +4818,12 @@
       </c>
       <c r="V17" s="2" t="inlineStr">
         <is>
-          <t>37,9%</t>
+          <t>38,27%</t>
         </is>
       </c>
       <c r="W17" s="2" t="inlineStr">
         <is>
-          <t>44,64%</t>
+          <t>44,51%</t>
         </is>
       </c>
     </row>
@@ -4963,12 +4963,12 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>40562</t>
+          <t>39215</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>78755</t>
+          <t>78217</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -4978,12 +4978,12 @@
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>1,93%</t>
+          <t>1,87%</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>3,75%</t>
+          <t>3,73%</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
@@ -4998,12 +4998,12 @@
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>71469</t>
+          <t>73531</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>120266</t>
+          <t>119028</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
@@ -5013,12 +5013,12 @@
       </c>
       <c r="O19" s="2" t="inlineStr">
         <is>
-          <t>3,21%</t>
+          <t>3,3%</t>
         </is>
       </c>
       <c r="P19" s="2" t="inlineStr">
         <is>
-          <t>5,4%</t>
+          <t>5,34%</t>
         </is>
       </c>
       <c r="Q19" s="2" t="inlineStr">
@@ -5033,12 +5033,12 @@
       </c>
       <c r="S19" s="2" t="inlineStr">
         <is>
-          <t>123979</t>
+          <t>125503</t>
         </is>
       </c>
       <c r="T19" s="2" t="inlineStr">
         <is>
-          <t>188201</t>
+          <t>185741</t>
         </is>
       </c>
       <c r="U19" s="2" t="inlineStr">
@@ -5048,12 +5048,12 @@
       </c>
       <c r="V19" s="2" t="inlineStr">
         <is>
-          <t>2,87%</t>
+          <t>2,9%</t>
         </is>
       </c>
       <c r="W19" s="2" t="inlineStr">
         <is>
-          <t>4,35%</t>
+          <t>4,29%</t>
         </is>
       </c>
     </row>
@@ -5076,12 +5076,12 @@
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>171906</t>
+          <t>169818</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>301081</t>
+          <t>297199</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
@@ -5091,12 +5091,12 @@
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>8,19%</t>
+          <t>8,09%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>14,35%</t>
+          <t>14,16%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
@@ -5111,12 +5111,12 @@
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>268676</t>
+          <t>256862</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>417723</t>
+          <t>419772</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
@@ -5126,12 +5126,12 @@
       </c>
       <c r="O20" s="2" t="inlineStr">
         <is>
-          <t>12,06%</t>
+          <t>11,53%</t>
         </is>
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>18,75%</t>
+          <t>18,84%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
@@ -5146,12 +5146,12 @@
       </c>
       <c r="S20" s="2" t="inlineStr">
         <is>
-          <t>493138</t>
+          <t>494632</t>
         </is>
       </c>
       <c r="T20" s="2" t="inlineStr">
         <is>
-          <t>696782</t>
+          <t>691555</t>
         </is>
       </c>
       <c r="U20" s="2" t="inlineStr">
@@ -5161,12 +5161,12 @@
       </c>
       <c r="V20" s="2" t="inlineStr">
         <is>
-          <t>11,4%</t>
+          <t>11,43%</t>
         </is>
       </c>
       <c r="W20" s="2" t="inlineStr">
         <is>
-          <t>16,1%</t>
+          <t>15,98%</t>
         </is>
       </c>
     </row>
@@ -5189,12 +5189,12 @@
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>897196</t>
+          <t>900308</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>1396647</t>
+          <t>1409434</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -5204,12 +5204,12 @@
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>42,75%</t>
+          <t>42,9%</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>66,55%</t>
+          <t>67,16%</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
@@ -5224,12 +5224,12 @@
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>1006659</t>
+          <t>1011661</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>1437854</t>
+          <t>1463046</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
@@ -5239,12 +5239,12 @@
       </c>
       <c r="O21" s="2" t="inlineStr">
         <is>
-          <t>45,17%</t>
+          <t>45,4%</t>
         </is>
       </c>
       <c r="P21" s="2" t="inlineStr">
         <is>
-          <t>64,52%</t>
+          <t>65,65%</t>
         </is>
       </c>
       <c r="Q21" s="2" t="inlineStr">
@@ -5259,12 +5259,12 @@
       </c>
       <c r="S21" s="2" t="inlineStr">
         <is>
-          <t>1962619</t>
+          <t>1995169</t>
         </is>
       </c>
       <c r="T21" s="2" t="inlineStr">
         <is>
-          <t>2661125</t>
+          <t>2671497</t>
         </is>
       </c>
       <c r="U21" s="2" t="inlineStr">
@@ -5274,12 +5274,12 @@
       </c>
       <c r="V21" s="2" t="inlineStr">
         <is>
-          <t>45,36%</t>
+          <t>46,11%</t>
         </is>
       </c>
       <c r="W21" s="2" t="inlineStr">
         <is>
-          <t>61,5%</t>
+          <t>61,74%</t>
         </is>
       </c>
     </row>
@@ -5302,12 +5302,12 @@
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>487801</t>
+          <t>472446</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>840647</t>
+          <t>846557</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
@@ -5317,12 +5317,12 @@
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>23,25%</t>
+          <t>22,51%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>40,06%</t>
+          <t>40,34%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
@@ -5337,12 +5337,12 @@
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>444453</t>
+          <t>453431</t>
         </is>
       </c>
       <c r="M22" s="2" t="inlineStr">
         <is>
-          <t>701618</t>
+          <t>700093</t>
         </is>
       </c>
       <c r="N22" s="2" t="inlineStr">
@@ -5352,12 +5352,12 @@
       </c>
       <c r="O22" s="2" t="inlineStr">
         <is>
-          <t>19,94%</t>
+          <t>20,35%</t>
         </is>
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>31,49%</t>
+          <t>31,42%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
@@ -5372,12 +5372,12 @@
       </c>
       <c r="S22" s="2" t="inlineStr">
         <is>
-          <t>1038392</t>
+          <t>1043394</t>
         </is>
       </c>
       <c r="T22" s="2" t="inlineStr">
         <is>
-          <t>1507067</t>
+          <t>1481387</t>
         </is>
       </c>
       <c r="U22" s="2" t="inlineStr">
@@ -5387,12 +5387,12 @@
       </c>
       <c r="V22" s="2" t="inlineStr">
         <is>
-          <t>24,0%</t>
+          <t>24,11%</t>
         </is>
       </c>
       <c r="W22" s="2" t="inlineStr">
         <is>
-          <t>34,83%</t>
+          <t>34,24%</t>
         </is>
       </c>
     </row>
@@ -8286,12 +8286,12 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>4115</t>
+          <t>4042</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>14845</t>
+          <t>14227</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -8301,12 +8301,12 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>4,18%</t>
+          <t>4,1%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>15,06%</t>
+          <t>14,44%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -8321,12 +8321,12 @@
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>17147</t>
+          <t>17983</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>36446</t>
+          <t>35991</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
@@ -8336,12 +8336,12 @@
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>14,23%</t>
+          <t>14,93%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>30,26%</t>
+          <t>29,88%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
@@ -8356,12 +8356,12 @@
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>23069</t>
+          <t>23241</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>44715</t>
+          <t>44727</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
@@ -8371,7 +8371,7 @@
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>10,53%</t>
+          <t>10,61%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
@@ -8399,12 +8399,12 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>16106</t>
+          <t>16835</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>33023</t>
+          <t>34271</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -8414,12 +8414,12 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>16,34%</t>
+          <t>17,08%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>33,51%</t>
+          <t>34,77%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -8434,12 +8434,12 @@
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>33759</t>
+          <t>35279</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>52989</t>
+          <t>53361</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -8449,12 +8449,12 @@
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>28,03%</t>
+          <t>29,29%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>43,99%</t>
+          <t>44,3%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
@@ -8469,12 +8469,12 @@
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>56313</t>
+          <t>55327</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>82827</t>
+          <t>81591</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
@@ -8484,12 +8484,12 @@
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>25,71%</t>
+          <t>25,26%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>37,82%</t>
+          <t>37,25%</t>
         </is>
       </c>
     </row>
@@ -8512,12 +8512,12 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>36789</t>
+          <t>36181</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>58715</t>
+          <t>58629</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -8527,12 +8527,12 @@
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>37,33%</t>
+          <t>36,71%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>59,58%</t>
+          <t>59,49%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
@@ -8547,12 +8547,12 @@
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>34312</t>
+          <t>34393</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>53387</t>
+          <t>53121</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
@@ -8562,12 +8562,12 @@
       </c>
       <c r="O6" s="2" t="inlineStr">
         <is>
-          <t>28,48%</t>
+          <t>28,55%</t>
         </is>
       </c>
       <c r="P6" s="2" t="inlineStr">
         <is>
-          <t>44,32%</t>
+          <t>44,1%</t>
         </is>
       </c>
       <c r="Q6" s="2" t="inlineStr">
@@ -8582,12 +8582,12 @@
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>76217</t>
+          <t>77505</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>105990</t>
+          <t>106496</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
@@ -8597,12 +8597,12 @@
       </c>
       <c r="V6" s="2" t="inlineStr">
         <is>
-          <t>34,8%</t>
+          <t>35,39%</t>
         </is>
       </c>
       <c r="W6" s="2" t="inlineStr">
         <is>
-          <t>48,39%</t>
+          <t>48,63%</t>
         </is>
       </c>
     </row>
@@ -8625,12 +8625,12 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>11629</t>
+          <t>11192</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>30194</t>
+          <t>30242</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -8640,12 +8640,12 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>11,8%</t>
+          <t>11,36%</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>30,64%</t>
+          <t>30,69%</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -8660,12 +8660,12 @@
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>4861</t>
+          <t>4826</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>13766</t>
+          <t>13485</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
@@ -8675,12 +8675,12 @@
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>4,04%</t>
+          <t>4,01%</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>11,43%</t>
+          <t>11,19%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
@@ -8695,12 +8695,12 @@
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>18017</t>
+          <t>17796</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>40335</t>
+          <t>39914</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
@@ -8710,12 +8710,12 @@
       </c>
       <c r="V7" s="2" t="inlineStr">
         <is>
-          <t>8,23%</t>
+          <t>8,13%</t>
         </is>
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
-          <t>18,42%</t>
+          <t>18,22%</t>
         </is>
       </c>
     </row>
@@ -8855,12 +8855,12 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>8029</t>
+          <t>7979</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>16940</t>
+          <t>16696</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -8870,12 +8870,12 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>2,25%</t>
+          <t>2,23%</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>4,74%</t>
+          <t>4,67%</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -8890,12 +8890,12 @@
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>14115</t>
+          <t>14704</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>26829</t>
+          <t>26170</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -8905,12 +8905,12 @@
       </c>
       <c r="O9" s="2" t="inlineStr">
         <is>
-          <t>3,98%</t>
+          <t>4,15%</t>
         </is>
       </c>
       <c r="P9" s="2" t="inlineStr">
         <is>
-          <t>7,57%</t>
+          <t>7,38%</t>
         </is>
       </c>
       <c r="Q9" s="2" t="inlineStr">
@@ -8925,12 +8925,12 @@
       </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>24848</t>
+          <t>24613</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>39413</t>
+          <t>40465</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
@@ -8940,12 +8940,12 @@
       </c>
       <c r="V9" s="2" t="inlineStr">
         <is>
-          <t>3,49%</t>
+          <t>3,46%</t>
         </is>
       </c>
       <c r="W9" s="2" t="inlineStr">
         <is>
-          <t>5,54%</t>
+          <t>5,68%</t>
         </is>
       </c>
     </row>
@@ -8968,12 +8968,12 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>52588</t>
+          <t>51752</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>72314</t>
+          <t>72450</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -8983,12 +8983,12 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>14,72%</t>
+          <t>14,49%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>20,24%</t>
+          <t>20,28%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
@@ -9003,12 +9003,12 @@
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>60697</t>
+          <t>60032</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>81054</t>
+          <t>82036</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
@@ -9018,12 +9018,12 @@
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>17,12%</t>
+          <t>16,93%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>22,86%</t>
+          <t>23,14%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
@@ -9038,12 +9038,12 @@
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>117408</t>
+          <t>118601</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>147449</t>
+          <t>147421</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
@@ -9053,7 +9053,7 @@
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>16,49%</t>
+          <t>16,66%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
@@ -9081,12 +9081,12 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>138682</t>
+          <t>139243</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>164773</t>
+          <t>163723</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -9096,12 +9096,12 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>38,82%</t>
+          <t>38,98%</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>46,12%</t>
+          <t>45,83%</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -9116,12 +9116,12 @@
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>164948</t>
+          <t>164810</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>190505</t>
+          <t>190340</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
@@ -9131,12 +9131,12 @@
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>46,52%</t>
+          <t>46,48%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>53,73%</t>
+          <t>53,68%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
@@ -9151,12 +9151,12 @@
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>313725</t>
+          <t>311847</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>348162</t>
+          <t>347664</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
@@ -9166,12 +9166,12 @@
       </c>
       <c r="V11" s="2" t="inlineStr">
         <is>
-          <t>44,07%</t>
+          <t>43,81%</t>
         </is>
       </c>
       <c r="W11" s="2" t="inlineStr">
         <is>
-          <t>48,91%</t>
+          <t>48,84%</t>
         </is>
       </c>
     </row>
@@ -9194,12 +9194,12 @@
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>120027</t>
+          <t>119983</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>145785</t>
+          <t>144500</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -9209,12 +9209,12 @@
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>33,6%</t>
+          <t>33,58%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>40,81%</t>
+          <t>40,45%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
@@ -9229,12 +9229,12 @@
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>75793</t>
+          <t>75713</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>97397</t>
+          <t>97539</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
@@ -9244,12 +9244,12 @@
       </c>
       <c r="O12" s="2" t="inlineStr">
         <is>
-          <t>21,37%</t>
+          <t>21,35%</t>
         </is>
       </c>
       <c r="P12" s="2" t="inlineStr">
         <is>
-          <t>27,47%</t>
+          <t>27,51%</t>
         </is>
       </c>
       <c r="Q12" s="2" t="inlineStr">
@@ -9264,12 +9264,12 @@
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>202033</t>
+          <t>202852</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>237018</t>
+          <t>236838</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
@@ -9279,12 +9279,12 @@
       </c>
       <c r="V12" s="2" t="inlineStr">
         <is>
-          <t>28,38%</t>
+          <t>28,5%</t>
         </is>
       </c>
       <c r="W12" s="2" t="inlineStr">
         <is>
-          <t>33,3%</t>
+          <t>33,27%</t>
         </is>
       </c>
     </row>
@@ -9424,12 +9424,12 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>1800</t>
+          <t>1960</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>7244</t>
+          <t>7148</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -9439,12 +9439,12 @@
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>0,8%</t>
+          <t>0,87%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>3,23%</t>
+          <t>3,18%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
@@ -9459,12 +9459,12 @@
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>2594</t>
+          <t>2578</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>8826</t>
+          <t>7980</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
@@ -9474,12 +9474,12 @@
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>0,92%</t>
+          <t>0,91%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>3,12%</t>
+          <t>2,82%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
@@ -9494,12 +9494,12 @@
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>5448</t>
+          <t>5641</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>13335</t>
+          <t>13432</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
@@ -9509,12 +9509,12 @@
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>1,07%</t>
+          <t>1,11%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>2,63%</t>
+          <t>2,65%</t>
         </is>
       </c>
     </row>
@@ -9537,12 +9537,12 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>12087</t>
+          <t>11932</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>22769</t>
+          <t>21874</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -9552,12 +9552,12 @@
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>5,38%</t>
+          <t>5,31%</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>10,14%</t>
+          <t>9,74%</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
@@ -9572,12 +9572,12 @@
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>23837</t>
+          <t>23084</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>37743</t>
+          <t>37792</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -9587,12 +9587,12 @@
       </c>
       <c r="O15" s="2" t="inlineStr">
         <is>
-          <t>8,42%</t>
+          <t>8,15%</t>
         </is>
       </c>
       <c r="P15" s="2" t="inlineStr">
         <is>
-          <t>13,33%</t>
+          <t>13,35%</t>
         </is>
       </c>
       <c r="Q15" s="2" t="inlineStr">
@@ -9607,12 +9607,12 @@
       </c>
       <c r="S15" s="2" t="inlineStr">
         <is>
-          <t>38193</t>
+          <t>38754</t>
         </is>
       </c>
       <c r="T15" s="2" t="inlineStr">
         <is>
-          <t>56292</t>
+          <t>56594</t>
         </is>
       </c>
       <c r="U15" s="2" t="inlineStr">
@@ -9622,12 +9622,12 @@
       </c>
       <c r="V15" s="2" t="inlineStr">
         <is>
-          <t>7,52%</t>
+          <t>7,63%</t>
         </is>
       </c>
       <c r="W15" s="2" t="inlineStr">
         <is>
-          <t>11,09%</t>
+          <t>11,15%</t>
         </is>
       </c>
     </row>
@@ -9650,12 +9650,12 @@
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>83774</t>
+          <t>83735</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>103314</t>
+          <t>103639</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -9665,12 +9665,12 @@
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>37,3%</t>
+          <t>37,28%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>46,0%</t>
+          <t>46,14%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
@@ -9685,12 +9685,12 @@
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>108660</t>
+          <t>107903</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>131868</t>
+          <t>132449</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
@@ -9700,12 +9700,12 @@
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>38,38%</t>
+          <t>38,11%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>46,58%</t>
+          <t>46,78%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
@@ -9720,12 +9720,12 @@
       </c>
       <c r="S16" s="2" t="inlineStr">
         <is>
-          <t>199231</t>
+          <t>198500</t>
         </is>
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>230859</t>
+          <t>229930</t>
         </is>
       </c>
       <c r="U16" s="2" t="inlineStr">
@@ -9735,12 +9735,12 @@
       </c>
       <c r="V16" s="2" t="inlineStr">
         <is>
-          <t>39,24%</t>
+          <t>39,09%</t>
         </is>
       </c>
       <c r="W16" s="2" t="inlineStr">
         <is>
-          <t>45,47%</t>
+          <t>45,28%</t>
         </is>
       </c>
     </row>
@@ -9763,12 +9763,12 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>100813</t>
+          <t>100895</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>121131</t>
+          <t>120970</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -9778,12 +9778,12 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>44,88%</t>
+          <t>44,92%</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>53,93%</t>
+          <t>53,86%</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -9798,12 +9798,12 @@
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>115553</t>
+          <t>115594</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>139550</t>
+          <t>139174</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
@@ -9813,12 +9813,12 @@
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>40,81%</t>
+          <t>40,83%</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>49,29%</t>
+          <t>49,16%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
@@ -9833,12 +9833,12 @@
       </c>
       <c r="S17" s="2" t="inlineStr">
         <is>
-          <t>222625</t>
+          <t>221798</t>
         </is>
       </c>
       <c r="T17" s="2" t="inlineStr">
         <is>
-          <t>252766</t>
+          <t>253740</t>
         </is>
       </c>
       <c r="U17" s="2" t="inlineStr">
@@ -9848,12 +9848,12 @@
       </c>
       <c r="V17" s="2" t="inlineStr">
         <is>
-          <t>43,85%</t>
+          <t>43,68%</t>
         </is>
       </c>
       <c r="W17" s="2" t="inlineStr">
         <is>
-          <t>49,78%</t>
+          <t>49,97%</t>
         </is>
       </c>
     </row>
@@ -9993,12 +9993,12 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>17791</t>
+          <t>17548</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>31296</t>
+          <t>31839</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -10008,12 +10008,12 @@
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>2,61%</t>
+          <t>2,58%</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>4,6%</t>
+          <t>4,68%</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
@@ -10028,12 +10028,12 @@
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>38554</t>
+          <t>39840</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>63470</t>
+          <t>63381</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
@@ -10043,47 +10043,47 @@
       </c>
       <c r="O19" s="2" t="inlineStr">
         <is>
+          <t>5,25%</t>
+        </is>
+      </c>
+      <c r="P19" s="2" t="inlineStr">
+        <is>
+          <t>8,36%</t>
+        </is>
+      </c>
+      <c r="Q19" s="2" t="inlineStr">
+        <is>
+          <t>157</t>
+        </is>
+      </c>
+      <c r="R19" s="2" t="inlineStr">
+        <is>
+          <t>73295</t>
+        </is>
+      </c>
+      <c r="S19" s="2" t="inlineStr">
+        <is>
+          <t>60852</t>
+        </is>
+      </c>
+      <c r="T19" s="2" t="inlineStr">
+        <is>
+          <t>89097</t>
+        </is>
+      </c>
+      <c r="U19" s="2" t="inlineStr">
+        <is>
           <t>5,09%</t>
         </is>
       </c>
-      <c r="P19" s="2" t="inlineStr">
-        <is>
-          <t>8,37%</t>
-        </is>
-      </c>
-      <c r="Q19" s="2" t="inlineStr">
-        <is>
-          <t>157</t>
-        </is>
-      </c>
-      <c r="R19" s="2" t="inlineStr">
-        <is>
-          <t>73295</t>
-        </is>
-      </c>
-      <c r="S19" s="2" t="inlineStr">
-        <is>
-          <t>60161</t>
-        </is>
-      </c>
-      <c r="T19" s="2" t="inlineStr">
-        <is>
-          <t>88930</t>
-        </is>
-      </c>
-      <c r="U19" s="2" t="inlineStr">
-        <is>
-          <t>5,09%</t>
-        </is>
-      </c>
       <c r="V19" s="2" t="inlineStr">
         <is>
-          <t>4,18%</t>
+          <t>4,23%</t>
         </is>
       </c>
       <c r="W19" s="2" t="inlineStr">
         <is>
-          <t>6,18%</t>
+          <t>6,19%</t>
         </is>
       </c>
     </row>
@@ -10106,12 +10106,12 @@
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>90215</t>
+          <t>88738</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>118324</t>
+          <t>118181</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
@@ -10121,12 +10121,12 @@
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>13,26%</t>
+          <t>13,04%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>17,39%</t>
+          <t>17,37%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
@@ -10141,12 +10141,12 @@
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>129841</t>
+          <t>128275</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>162487</t>
+          <t>162652</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
@@ -10156,12 +10156,12 @@
       </c>
       <c r="O20" s="2" t="inlineStr">
         <is>
-          <t>17,13%</t>
+          <t>16,92%</t>
         </is>
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>21,43%</t>
+          <t>21,45%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
@@ -10176,12 +10176,12 @@
       </c>
       <c r="S20" s="2" t="inlineStr">
         <is>
-          <t>226643</t>
+          <t>224902</t>
         </is>
       </c>
       <c r="T20" s="2" t="inlineStr">
         <is>
-          <t>269403</t>
+          <t>269989</t>
         </is>
       </c>
       <c r="U20" s="2" t="inlineStr">
@@ -10191,12 +10191,12 @@
       </c>
       <c r="V20" s="2" t="inlineStr">
         <is>
-          <t>15,75%</t>
+          <t>15,63%</t>
         </is>
       </c>
       <c r="W20" s="2" t="inlineStr">
         <is>
-          <t>18,73%</t>
+          <t>18,77%</t>
         </is>
       </c>
     </row>
@@ -10219,12 +10219,12 @@
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>272935</t>
+          <t>273257</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>312998</t>
+          <t>311962</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -10234,12 +10234,12 @@
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>40,11%</t>
+          <t>40,16%</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>46,0%</t>
+          <t>45,85%</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
@@ -10254,12 +10254,12 @@
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>321335</t>
+          <t>324706</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>362523</t>
+          <t>365221</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
@@ -10269,12 +10269,12 @@
       </c>
       <c r="O21" s="2" t="inlineStr">
         <is>
-          <t>42,38%</t>
+          <t>42,83%</t>
         </is>
       </c>
       <c r="P21" s="2" t="inlineStr">
         <is>
-          <t>47,82%</t>
+          <t>48,17%</t>
         </is>
       </c>
       <c r="Q21" s="2" t="inlineStr">
@@ -10289,12 +10289,12 @@
       </c>
       <c r="S21" s="2" t="inlineStr">
         <is>
-          <t>605141</t>
+          <t>606572</t>
         </is>
       </c>
       <c r="T21" s="2" t="inlineStr">
         <is>
-          <t>662090</t>
+          <t>664818</t>
         </is>
       </c>
       <c r="U21" s="2" t="inlineStr">
@@ -10304,12 +10304,12 @@
       </c>
       <c r="V21" s="2" t="inlineStr">
         <is>
-          <t>42,06%</t>
+          <t>42,16%</t>
         </is>
       </c>
       <c r="W21" s="2" t="inlineStr">
         <is>
-          <t>46,02%</t>
+          <t>46,21%</t>
         </is>
       </c>
     </row>
@@ -10332,12 +10332,12 @@
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>242000</t>
+          <t>243085</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>281120</t>
+          <t>282438</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
@@ -10347,12 +10347,12 @@
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>35,57%</t>
+          <t>35,73%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>41,32%</t>
+          <t>41,51%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
@@ -10367,12 +10367,12 @@
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>203006</t>
+          <t>203432</t>
         </is>
       </c>
       <c r="M22" s="2" t="inlineStr">
         <is>
-          <t>238548</t>
+          <t>239759</t>
         </is>
       </c>
       <c r="N22" s="2" t="inlineStr">
@@ -10382,12 +10382,12 @@
       </c>
       <c r="O22" s="2" t="inlineStr">
         <is>
-          <t>26,78%</t>
+          <t>26,83%</t>
         </is>
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>31,46%</t>
+          <t>31,62%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
@@ -10402,12 +10402,12 @@
       </c>
       <c r="S22" s="2" t="inlineStr">
         <is>
-          <t>458203</t>
+          <t>457178</t>
         </is>
       </c>
       <c r="T22" s="2" t="inlineStr">
         <is>
-          <t>511288</t>
+          <t>510496</t>
         </is>
       </c>
       <c r="U22" s="2" t="inlineStr">
@@ -10417,12 +10417,12 @@
       </c>
       <c r="V22" s="2" t="inlineStr">
         <is>
-          <t>31,85%</t>
+          <t>31,78%</t>
         </is>
       </c>
       <c r="W22" s="2" t="inlineStr">
         <is>
-          <t>35,54%</t>
+          <t>35,49%</t>
         </is>
       </c>
     </row>

--- a/data/trans_orig/SALUD_GEN_PER-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/SALUD_GEN_PER-Estudios-trans_orig.xlsx
@@ -7,10 +7,10 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="País Vasco" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Andalucia" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Andalucia" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Barcelona" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="C.Valenciana" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Barcelona" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="País Vasco" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -546,7 +546,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Salud general percibida en País Vasco (tasa de respuesta: 100,0%)</t>
+          <t>Salud general percibida en Andalucia (tasa de respuesta: 100,0%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -731,107 +731,107 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>35</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>3311</t>
+          <t>26501</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>1438</t>
+          <t>18839</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>6858</t>
+          <t>36671</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>4,54%</t>
+          <t>10,34%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>1,97%</t>
+          <t>7,35%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>9,39%</t>
+          <t>14,3%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>111</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>10938</t>
+          <t>67491</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>7205</t>
+          <t>56156</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>15110</t>
+          <t>79467</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>9,4%</t>
+          <t>15,53%</t>
         </is>
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>6,19%</t>
+          <t>12,92%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>12,99%</t>
+          <t>18,29%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>146</t>
         </is>
       </c>
       <c r="R4" s="2" t="inlineStr">
         <is>
-          <t>14249</t>
+          <t>93992</t>
         </is>
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>10055</t>
+          <t>80420</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>20063</t>
+          <t>109287</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
         <is>
-          <t>7,52%</t>
+          <t>13,6%</t>
         </is>
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>5,31%</t>
+          <t>11,64%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>10,6%</t>
+          <t>15,82%</t>
         </is>
       </c>
     </row>
@@ -844,107 +844,107 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>92</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>17251</t>
+          <t>75786</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>13030</t>
+          <t>61979</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>22097</t>
+          <t>88768</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>23,63%</t>
+          <t>29,56%</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>17,85%</t>
+          <t>24,17%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>30,27%</t>
+          <t>34,62%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>132</t>
+          <t>262</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>34677</t>
+          <t>156593</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>28886</t>
+          <t>140015</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>41440</t>
+          <t>171967</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>29,8%</t>
+          <t>36,04%</t>
         </is>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>24,83%</t>
+          <t>32,22%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>35,62%</t>
+          <t>39,58%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
         <is>
-          <t>194</t>
+          <t>354</t>
         </is>
       </c>
       <c r="R5" s="2" t="inlineStr">
         <is>
-          <t>51928</t>
+          <t>232378</t>
         </is>
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>44971</t>
+          <t>208786</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>60058</t>
+          <t>253704</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
         <is>
-          <t>27,42%</t>
+          <t>33,63%</t>
         </is>
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>23,75%</t>
+          <t>30,22%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>31,72%</t>
+          <t>36,72%</t>
         </is>
       </c>
     </row>
@@ -957,107 +957,107 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>107</t>
+          <t>113</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>32985</t>
+          <t>99530</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>27257</t>
+          <t>84993</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>38810</t>
+          <t>113858</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>45,18%</t>
+          <t>38,82%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>37,34%</t>
+          <t>33,15%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>53,16%</t>
+          <t>44,41%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>159</t>
+          <t>260</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>43937</t>
+          <t>164797</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>37683</t>
+          <t>147575</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>50571</t>
+          <t>179811</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>37,76%</t>
+          <t>37,93%</t>
         </is>
       </c>
       <c r="O6" s="2" t="inlineStr">
         <is>
-          <t>32,39%</t>
+          <t>33,96%</t>
         </is>
       </c>
       <c r="P6" s="2" t="inlineStr">
         <is>
-          <t>43,47%</t>
+          <t>41,38%</t>
         </is>
       </c>
       <c r="Q6" s="2" t="inlineStr">
         <is>
-          <t>266</t>
+          <t>373</t>
         </is>
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
-          <t>76922</t>
+          <t>264327</t>
         </is>
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>68049</t>
+          <t>242221</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>85687</t>
+          <t>286667</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
         <is>
-          <t>40,62%</t>
+          <t>38,26%</t>
         </is>
       </c>
       <c r="V6" s="2" t="inlineStr">
         <is>
-          <t>35,94%</t>
+          <t>35,06%</t>
         </is>
       </c>
       <c r="W6" s="2" t="inlineStr">
         <is>
-          <t>45,25%</t>
+          <t>41,49%</t>
         </is>
       </c>
     </row>
@@ -1070,107 +1070,107 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>51</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>19457</t>
+          <t>54564</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>14734</t>
+          <t>41628</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>25427</t>
+          <t>68856</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>26,65%</t>
+          <t>21,28%</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>20,18%</t>
+          <t>16,24%</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>34,83%</t>
+          <t>26,86%</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>85</t>
+          <t>65</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>26797</t>
+          <t>45638</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>21125</t>
+          <t>35765</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>32977</t>
+          <t>59474</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>23,03%</t>
+          <t>10,5%</t>
         </is>
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>18,16%</t>
+          <t>8,23%</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>28,34%</t>
+          <t>13,69%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
         <is>
-          <t>142</t>
+          <t>116</t>
         </is>
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
-          <t>46254</t>
+          <t>100202</t>
         </is>
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>38173</t>
+          <t>82573</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>54403</t>
+          <t>119910</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
         <is>
-          <t>24,43%</t>
+          <t>14,5%</t>
         </is>
       </c>
       <c r="V7" s="2" t="inlineStr">
         <is>
-          <t>20,16%</t>
+          <t>11,95%</t>
         </is>
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
-          <t>28,73%</t>
+          <t>17,36%</t>
         </is>
       </c>
     </row>
@@ -1183,22 +1183,22 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>237</t>
+          <t>291</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>73004</t>
+          <t>256380</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>73004</t>
+          <t>256380</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>73004</t>
+          <t>256380</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -1218,22 +1218,22 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>415</t>
+          <t>698</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>116349</t>
+          <t>434519</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>116349</t>
+          <t>434519</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>116349</t>
+          <t>434519</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
@@ -1253,22 +1253,22 @@
       </c>
       <c r="Q8" s="2" t="inlineStr">
         <is>
-          <t>652</t>
+          <t>989</t>
         </is>
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
-          <t>189353</t>
+          <t>690899</t>
         </is>
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>189353</t>
+          <t>690899</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>189353</t>
+          <t>690899</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
@@ -1300,107 +1300,107 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>34</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>12164</t>
+          <t>29682</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>8533</t>
+          <t>20167</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>17760</t>
+          <t>40629</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>2,6%</t>
+          <t>2,31%</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>1,83%</t>
+          <t>1,57%</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>3,8%</t>
+          <t>3,16%</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>50</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>16638</t>
+          <t>32473</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>12227</t>
+          <t>24529</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>22476</t>
+          <t>41965</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>3,69%</t>
+          <t>2,55%</t>
         </is>
       </c>
       <c r="O9" s="2" t="inlineStr">
         <is>
-          <t>2,71%</t>
+          <t>1,93%</t>
         </is>
       </c>
       <c r="P9" s="2" t="inlineStr">
         <is>
-          <t>4,98%</t>
+          <t>3,3%</t>
         </is>
       </c>
       <c r="Q9" s="2" t="inlineStr">
         <is>
-          <t>103</t>
+          <t>84</t>
         </is>
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t>28802</t>
+          <t>62155</t>
         </is>
       </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>23066</t>
+          <t>49817</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>36415</t>
+          <t>77454</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
         <is>
-          <t>3,14%</t>
+          <t>2,43%</t>
         </is>
       </c>
       <c r="V9" s="2" t="inlineStr">
         <is>
-          <t>2,51%</t>
+          <t>1,95%</t>
         </is>
       </c>
       <c r="W9" s="2" t="inlineStr">
         <is>
-          <t>3,97%</t>
+          <t>3,03%</t>
         </is>
       </c>
     </row>
@@ -1413,107 +1413,107 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>206</t>
+          <t>167</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>65109</t>
+          <t>156832</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>55169</t>
+          <t>136425</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>75287</t>
+          <t>185484</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>13,94%</t>
+          <t>12,18%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>11,81%</t>
+          <t>10,59%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>16,11%</t>
+          <t>14,4%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>262</t>
+          <t>289</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>77289</t>
+          <t>197697</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>66609</t>
+          <t>176915</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>88220</t>
+          <t>223247</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>17,13%</t>
+          <t>15,55%</t>
         </is>
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>14,77%</t>
+          <t>13,91%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>19,56%</t>
+          <t>17,56%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
         <is>
-          <t>468</t>
+          <t>456</t>
         </is>
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>142398</t>
+          <t>354528</t>
         </is>
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>129036</t>
+          <t>321792</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>158170</t>
+          <t>387667</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
         <is>
-          <t>15,51%</t>
+          <t>13,85%</t>
         </is>
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>14,05%</t>
+          <t>12,57%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>17,22%</t>
+          <t>15,15%</t>
         </is>
       </c>
     </row>
@@ -1526,107 +1526,107 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>600</t>
+          <t>528</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>195706</t>
+          <t>551014</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>181418</t>
+          <t>510515</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>211734</t>
+          <t>590583</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>41,89%</t>
+          <t>42,79%</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>38,83%</t>
+          <t>39,65%</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>45,32%</t>
+          <t>45,86%</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>585</t>
+          <t>812</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>185608</t>
+          <t>589370</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>172602</t>
+          <t>554297</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>201572</t>
+          <t>625914</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>41,14%</t>
+          <t>46,36%</t>
         </is>
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>38,26%</t>
+          <t>43,6%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>44,68%</t>
+          <t>49,23%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
         <is>
-          <t>1185</t>
+          <t>1340</t>
         </is>
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>381314</t>
+          <t>1140384</t>
         </is>
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>360635</t>
+          <t>1088306</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>403565</t>
+          <t>1195966</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
         <is>
-          <t>41,52%</t>
+          <t>44,56%</t>
         </is>
       </c>
       <c r="V11" s="2" t="inlineStr">
         <is>
-          <t>39,27%</t>
+          <t>42,53%</t>
         </is>
       </c>
       <c r="W11" s="2" t="inlineStr">
         <is>
-          <t>43,95%</t>
+          <t>46,73%</t>
         </is>
       </c>
     </row>
@@ -1639,107 +1639,107 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>501</t>
+          <t>382</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>194219</t>
+          <t>550159</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>178139</t>
+          <t>505751</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>209198</t>
+          <t>590666</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>41,57%</t>
+          <t>42,72%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>38,13%</t>
+          <t>39,28%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>44,78%</t>
+          <t>45,87%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>458</t>
+          <t>489</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>171579</t>
+          <t>451886</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>157462</t>
+          <t>418446</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>185991</t>
+          <t>486873</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>38,03%</t>
+          <t>35,54%</t>
         </is>
       </c>
       <c r="O12" s="2" t="inlineStr">
         <is>
-          <t>34,91%</t>
+          <t>32,91%</t>
         </is>
       </c>
       <c r="P12" s="2" t="inlineStr">
         <is>
-          <t>41,23%</t>
+          <t>38,29%</t>
         </is>
       </c>
       <c r="Q12" s="2" t="inlineStr">
         <is>
-          <t>959</t>
+          <t>871</t>
         </is>
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>365798</t>
+          <t>1002044</t>
         </is>
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>343960</t>
+          <t>944660</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>386677</t>
+          <t>1054525</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
         <is>
-          <t>39,83%</t>
+          <t>39,16%</t>
         </is>
       </c>
       <c r="V12" s="2" t="inlineStr">
         <is>
-          <t>37,46%</t>
+          <t>36,91%</t>
         </is>
       </c>
       <c r="W12" s="2" t="inlineStr">
         <is>
-          <t>42,11%</t>
+          <t>41,21%</t>
         </is>
       </c>
     </row>
@@ -1752,22 +1752,22 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>1353</t>
+          <t>1111</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>467198</t>
+          <t>1287687</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>467198</t>
+          <t>1287687</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>467198</t>
+          <t>1287687</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1787,22 +1787,22 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>1362</t>
+          <t>1640</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>451114</t>
+          <t>1271425</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>451114</t>
+          <t>1271425</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>451114</t>
+          <t>1271425</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
@@ -1822,22 +1822,22 @@
       </c>
       <c r="Q13" s="2" t="inlineStr">
         <is>
-          <t>2715</t>
+          <t>2751</t>
         </is>
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>918312</t>
+          <t>2559112</t>
         </is>
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>918312</t>
+          <t>2559112</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>918312</t>
+          <t>2559112</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
@@ -1869,107 +1869,107 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>11</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>2142</t>
+          <t>9085</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>948</t>
+          <t>4784</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>4113</t>
+          <t>16307</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>1,04%</t>
+          <t>1,78%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>0,46%</t>
+          <t>0,94%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>2,0%</t>
+          <t>3,2%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>17</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>3043</t>
+          <t>11095</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>1472</t>
+          <t>6461</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>6074</t>
+          <t>16984</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>1,21%</t>
+          <t>2,24%</t>
         </is>
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>0,58%</t>
+          <t>1,3%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>2,41%</t>
+          <t>3,42%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>28</t>
         </is>
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>5185</t>
+          <t>20180</t>
         </is>
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>3043</t>
+          <t>13402</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>8279</t>
+          <t>28870</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
         <is>
-          <t>1,13%</t>
+          <t>2,01%</t>
         </is>
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>0,66%</t>
+          <t>1,33%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>1,81%</t>
+          <t>2,87%</t>
         </is>
       </c>
     </row>
@@ -1982,107 +1982,107 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>49</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>17412</t>
+          <t>46413</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>11563</t>
+          <t>33964</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>25343</t>
+          <t>61060</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>8,46%</t>
+          <t>9,1%</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>5,62%</t>
+          <t>6,66%</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>12,31%</t>
+          <t>11,98%</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>66</t>
+          <t>79</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>20211</t>
+          <t>52213</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>14760</t>
+          <t>40143</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>27094</t>
+          <t>64250</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>8,01%</t>
+          <t>10,53%</t>
         </is>
       </c>
       <c r="O15" s="2" t="inlineStr">
         <is>
-          <t>5,85%</t>
+          <t>8,09%</t>
         </is>
       </c>
       <c r="P15" s="2" t="inlineStr">
         <is>
-          <t>10,74%</t>
+          <t>12,96%</t>
         </is>
       </c>
       <c r="Q15" s="2" t="inlineStr">
         <is>
-          <t>109</t>
+          <t>128</t>
         </is>
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>37623</t>
+          <t>98627</t>
         </is>
       </c>
       <c r="S15" s="2" t="inlineStr">
         <is>
-          <t>29671</t>
+          <t>82599</t>
         </is>
       </c>
       <c r="T15" s="2" t="inlineStr">
         <is>
-          <t>47944</t>
+          <t>116498</t>
         </is>
       </c>
       <c r="U15" s="2" t="inlineStr">
         <is>
+          <t>9,81%</t>
+        </is>
+      </c>
+      <c r="V15" s="2" t="inlineStr">
+        <is>
           <t>8,21%</t>
         </is>
       </c>
-      <c r="V15" s="2" t="inlineStr">
-        <is>
-          <t>6,47%</t>
-        </is>
-      </c>
       <c r="W15" s="2" t="inlineStr">
         <is>
-          <t>10,46%</t>
+          <t>11,58%</t>
         </is>
       </c>
     </row>
@@ -2095,107 +2095,107 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>186</t>
+          <t>253</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>73469</t>
+          <t>241137</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>63537</t>
+          <t>217134</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>84121</t>
+          <t>266104</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>35,69%</t>
+          <t>47,29%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>30,86%</t>
+          <t>42,59%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>40,86%</t>
+          <t>52,19%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>283</t>
+          <t>320</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>101638</t>
+          <t>229317</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>90510</t>
+          <t>209753</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>112694</t>
+          <t>249606</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>40,28%</t>
+          <t>46,24%</t>
         </is>
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>35,87%</t>
+          <t>42,3%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>44,66%</t>
+          <t>50,33%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
         <is>
-          <t>469</t>
+          <t>573</t>
         </is>
       </c>
       <c r="R16" s="2" t="inlineStr">
         <is>
-          <t>175107</t>
+          <t>470454</t>
         </is>
       </c>
       <c r="S16" s="2" t="inlineStr">
         <is>
-          <t>159395</t>
+          <t>439598</t>
         </is>
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>191632</t>
+          <t>503038</t>
         </is>
       </c>
       <c r="U16" s="2" t="inlineStr">
         <is>
-          <t>38,21%</t>
+          <t>46,77%</t>
         </is>
       </c>
       <c r="V16" s="2" t="inlineStr">
         <is>
-          <t>34,78%</t>
+          <t>43,71%</t>
         </is>
       </c>
       <c r="W16" s="2" t="inlineStr">
         <is>
-          <t>41,82%</t>
+          <t>50,01%</t>
         </is>
       </c>
     </row>
@@ -2208,107 +2208,107 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>261</t>
+          <t>174</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>112857</t>
+          <t>213244</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>100937</t>
+          <t>188035</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>123947</t>
+          <t>238821</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>54,82%</t>
+          <t>41,82%</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>49,03%</t>
+          <t>36,88%</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>60,2%</t>
+          <t>46,84%</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>307</t>
+          <t>250</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>127462</t>
+          <t>203280</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>115198</t>
+          <t>183697</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>138703</t>
+          <t>223227</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>50,51%</t>
+          <t>40,99%</t>
         </is>
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>45,65%</t>
+          <t>37,04%</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>54,96%</t>
+          <t>45,01%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
         <is>
-          <t>568</t>
+          <t>424</t>
         </is>
       </c>
       <c r="R17" s="2" t="inlineStr">
         <is>
-          <t>240319</t>
+          <t>416525</t>
         </is>
       </c>
       <c r="S17" s="2" t="inlineStr">
         <is>
-          <t>224404</t>
+          <t>386499</t>
         </is>
       </c>
       <c r="T17" s="2" t="inlineStr">
         <is>
-          <t>256841</t>
+          <t>449241</t>
         </is>
       </c>
       <c r="U17" s="2" t="inlineStr">
         <is>
-          <t>52,44%</t>
+          <t>41,41%</t>
         </is>
       </c>
       <c r="V17" s="2" t="inlineStr">
         <is>
-          <t>48,97%</t>
+          <t>38,43%</t>
         </is>
       </c>
       <c r="W17" s="2" t="inlineStr">
         <is>
-          <t>56,05%</t>
+          <t>44,67%</t>
         </is>
       </c>
     </row>
@@ -2321,22 +2321,22 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>499</t>
+          <t>487</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>205880</t>
+          <t>509879</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>205880</t>
+          <t>509879</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>205880</t>
+          <t>509879</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -2361,17 +2361,17 @@
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>252354</t>
+          <t>495906</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>252354</t>
+          <t>495906</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>252354</t>
+          <t>495906</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
@@ -2391,22 +2391,22 @@
       </c>
       <c r="Q18" s="2" t="inlineStr">
         <is>
-          <t>1165</t>
+          <t>1153</t>
         </is>
       </c>
       <c r="R18" s="2" t="inlineStr">
         <is>
-          <t>458234</t>
+          <t>1005786</t>
         </is>
       </c>
       <c r="S18" s="2" t="inlineStr">
         <is>
-          <t>458234</t>
+          <t>1005786</t>
         </is>
       </c>
       <c r="T18" s="2" t="inlineStr">
         <is>
-          <t>458234</t>
+          <t>1005786</t>
         </is>
       </c>
       <c r="U18" s="2" t="inlineStr">
@@ -2438,107 +2438,107 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>66</t>
+          <t>80</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>17617</t>
+          <t>65268</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>13202</t>
+          <t>50730</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>23884</t>
+          <t>79141</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>2,36%</t>
+          <t>3,18%</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>1,77%</t>
+          <t>2,47%</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>3,2%</t>
+          <t>3,85%</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>106</t>
+          <t>178</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>30618</t>
+          <t>111060</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>23844</t>
+          <t>94937</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>37342</t>
+          <t>127603</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>3,73%</t>
+          <t>5,04%</t>
         </is>
       </c>
       <c r="O19" s="2" t="inlineStr">
         <is>
-          <t>2,91%</t>
+          <t>4,31%</t>
         </is>
       </c>
       <c r="P19" s="2" t="inlineStr">
         <is>
-          <t>4,55%</t>
+          <t>5,8%</t>
         </is>
       </c>
       <c r="Q19" s="2" t="inlineStr">
         <is>
-          <t>172</t>
+          <t>258</t>
         </is>
       </c>
       <c r="R19" s="2" t="inlineStr">
         <is>
-          <t>48235</t>
+          <t>176327</t>
         </is>
       </c>
       <c r="S19" s="2" t="inlineStr">
         <is>
-          <t>40390</t>
+          <t>154402</t>
         </is>
       </c>
       <c r="T19" s="2" t="inlineStr">
         <is>
-          <t>58139</t>
+          <t>197414</t>
         </is>
       </c>
       <c r="U19" s="2" t="inlineStr">
         <is>
-          <t>3,08%</t>
+          <t>4,14%</t>
         </is>
       </c>
       <c r="V19" s="2" t="inlineStr">
         <is>
-          <t>2,58%</t>
+          <t>3,63%</t>
         </is>
       </c>
       <c r="W19" s="2" t="inlineStr">
         <is>
-          <t>3,71%</t>
+          <t>4,64%</t>
         </is>
       </c>
     </row>
@@ -2551,107 +2551,107 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>311</t>
+          <t>308</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>99772</t>
+          <t>279031</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>87539</t>
+          <t>250290</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>114418</t>
+          <t>311082</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>13,37%</t>
+          <t>13,59%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>11,73%</t>
+          <t>12,19%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>15,34%</t>
+          <t>15,15%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>460</t>
+          <t>630</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>132178</t>
+          <t>406503</t>
         </is>
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>118986</t>
+          <t>375662</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>147340</t>
+          <t>437542</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
         <is>
-          <t>16,12%</t>
+          <t>18,46%</t>
         </is>
       </c>
       <c r="O20" s="2" t="inlineStr">
         <is>
-          <t>14,51%</t>
+          <t>17,06%</t>
         </is>
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>17,97%</t>
+          <t>19,87%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
         <is>
-          <t>771</t>
+          <t>938</t>
         </is>
       </c>
       <c r="R20" s="2" t="inlineStr">
         <is>
-          <t>231949</t>
+          <t>685533</t>
         </is>
       </c>
       <c r="S20" s="2" t="inlineStr">
         <is>
-          <t>211658</t>
+          <t>641110</t>
         </is>
       </c>
       <c r="T20" s="2" t="inlineStr">
         <is>
-          <t>251339</t>
+          <t>727994</t>
         </is>
       </c>
       <c r="U20" s="2" t="inlineStr">
         <is>
-          <t>14,81%</t>
+          <t>16,11%</t>
         </is>
       </c>
       <c r="V20" s="2" t="inlineStr">
         <is>
-          <t>13,52%</t>
+          <t>15,06%</t>
         </is>
       </c>
       <c r="W20" s="2" t="inlineStr">
         <is>
-          <t>16,05%</t>
+          <t>17,11%</t>
         </is>
       </c>
     </row>
@@ -2664,107 +2664,107 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>893</t>
+          <t>894</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>302160</t>
+          <t>891681</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>283393</t>
+          <t>841492</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>321934</t>
+          <t>941839</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>40,5%</t>
+          <t>43,41%</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>37,98%</t>
+          <t>40,97%</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>43,15%</t>
+          <t>45,86%</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>1027</t>
+          <t>1392</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>331183</t>
+          <t>983484</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>312037</t>
+          <t>941338</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>351403</t>
+          <t>1024744</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>40,4%</t>
+          <t>44,67%</t>
         </is>
       </c>
       <c r="O21" s="2" t="inlineStr">
         <is>
-          <t>38,06%</t>
+          <t>42,75%</t>
         </is>
       </c>
       <c r="P21" s="2" t="inlineStr">
         <is>
-          <t>42,86%</t>
+          <t>46,54%</t>
         </is>
       </c>
       <c r="Q21" s="2" t="inlineStr">
         <is>
-          <t>1920</t>
+          <t>2286</t>
         </is>
       </c>
       <c r="R21" s="2" t="inlineStr">
         <is>
-          <t>633342</t>
+          <t>1875165</t>
         </is>
       </c>
       <c r="S21" s="2" t="inlineStr">
         <is>
-          <t>607521</t>
+          <t>1810404</t>
         </is>
       </c>
       <c r="T21" s="2" t="inlineStr">
         <is>
-          <t>663260</t>
+          <t>1937754</t>
         </is>
       </c>
       <c r="U21" s="2" t="inlineStr">
         <is>
-          <t>40,45%</t>
+          <t>44,06%</t>
         </is>
       </c>
       <c r="V21" s="2" t="inlineStr">
         <is>
-          <t>38,8%</t>
+          <t>42,54%</t>
         </is>
       </c>
       <c r="W21" s="2" t="inlineStr">
         <is>
-          <t>42,36%</t>
+          <t>45,53%</t>
         </is>
       </c>
     </row>
@@ -2777,107 +2777,107 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>819</t>
+          <t>607</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>326533</t>
+          <t>817967</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>305851</t>
+          <t>765029</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>345200</t>
+          <t>869116</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>43,77%</t>
+          <t>39,82%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>40,99%</t>
+          <t>37,25%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>46,27%</t>
+          <t>42,31%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>850</t>
+          <t>804</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>325839</t>
+          <t>700804</t>
         </is>
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>306339</t>
+          <t>659912</t>
         </is>
       </c>
       <c r="M22" s="2" t="inlineStr">
         <is>
-          <t>348103</t>
+          <t>741737</t>
         </is>
       </c>
       <c r="N22" s="2" t="inlineStr">
         <is>
-          <t>39,75%</t>
+          <t>31,83%</t>
         </is>
       </c>
       <c r="O22" s="2" t="inlineStr">
         <is>
-          <t>37,37%</t>
+          <t>29,97%</t>
         </is>
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>42,46%</t>
+          <t>33,69%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
         <is>
-          <t>1669</t>
+          <t>1411</t>
         </is>
       </c>
       <c r="R22" s="2" t="inlineStr">
         <is>
-          <t>652372</t>
+          <t>1518771</t>
         </is>
       </c>
       <c r="S22" s="2" t="inlineStr">
         <is>
-          <t>623761</t>
+          <t>1450964</t>
         </is>
       </c>
       <c r="T22" s="2" t="inlineStr">
         <is>
-          <t>679878</t>
+          <t>1583843</t>
         </is>
       </c>
       <c r="U22" s="2" t="inlineStr">
         <is>
-          <t>41,66%</t>
+          <t>35,69%</t>
         </is>
       </c>
       <c r="V22" s="2" t="inlineStr">
         <is>
-          <t>39,83%</t>
+          <t>34,09%</t>
         </is>
       </c>
       <c r="W22" s="2" t="inlineStr">
         <is>
-          <t>43,42%</t>
+          <t>37,22%</t>
         </is>
       </c>
     </row>
@@ -2890,22 +2890,22 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>2089</t>
+          <t>1889</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>746081</t>
+          <t>2053946</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>746081</t>
+          <t>2053946</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>746081</t>
+          <t>2053946</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
@@ -2925,22 +2925,22 @@
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>2443</t>
+          <t>3004</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>819818</t>
+          <t>2201851</t>
         </is>
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>819818</t>
+          <t>2201851</t>
         </is>
       </c>
       <c r="M23" s="2" t="inlineStr">
         <is>
-          <t>819818</t>
+          <t>2201851</t>
         </is>
       </c>
       <c r="N23" s="2" t="inlineStr">
@@ -2960,22 +2960,22 @@
       </c>
       <c r="Q23" s="2" t="inlineStr">
         <is>
-          <t>4532</t>
+          <t>4893</t>
         </is>
       </c>
       <c r="R23" s="2" t="inlineStr">
         <is>
-          <t>1565899</t>
+          <t>4255797</t>
         </is>
       </c>
       <c r="S23" s="2" t="inlineStr">
         <is>
-          <t>1565899</t>
+          <t>4255797</t>
         </is>
       </c>
       <c r="T23" s="2" t="inlineStr">
         <is>
-          <t>1565899</t>
+          <t>4255797</t>
         </is>
       </c>
       <c r="U23" s="2" t="inlineStr">
@@ -3061,7 +3061,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Salud general percibida en Andalucia (tasa de respuesta: 100,0%)</t>
+          <t>Salud general percibida en Barcelona (tasa de respuesta: 100,0%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -3246,107 +3246,107 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>17</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>24733</t>
+          <t>7907</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>17460</t>
+          <t>4042</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>33716</t>
+          <t>14227</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>10,79%</t>
+          <t>8,02%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>7,61%</t>
+          <t>4,1%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>14,7%</t>
+          <t>14,44%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>111</t>
+          <t>42</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>60516</t>
+          <t>25135</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>49716</t>
+          <t>17983</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>71394</t>
+          <t>35991</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>15,18%</t>
+          <t>20,87%</t>
         </is>
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>12,47%</t>
+          <t>14,93%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>17,91%</t>
+          <t>29,88%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
         <is>
-          <t>146</t>
+          <t>59</t>
         </is>
       </c>
       <c r="R4" s="2" t="inlineStr">
         <is>
-          <t>85249</t>
+          <t>33042</t>
         </is>
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>72359</t>
+          <t>23241</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>99273</t>
+          <t>44727</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
         <is>
-          <t>13,58%</t>
+          <t>15,09%</t>
         </is>
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>11,53%</t>
+          <t>10,61%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>15,81%</t>
+          <t>20,42%</t>
         </is>
       </c>
     </row>
@@ -3359,107 +3359,107 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>92</t>
+          <t>58</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>68038</t>
+          <t>24438</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>55547</t>
+          <t>16835</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>79828</t>
+          <t>34271</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>29,67%</t>
+          <t>24,8%</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>24,23%</t>
+          <t>17,08%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>34,81%</t>
+          <t>34,77%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>262</t>
+          <t>114</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>141923</t>
+          <t>43620</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>126446</t>
+          <t>35279</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>156935</t>
+          <t>53361</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>35,61%</t>
+          <t>36,21%</t>
         </is>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>31,73%</t>
+          <t>29,29%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>39,38%</t>
+          <t>44,3%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
         <is>
-          <t>354</t>
+          <t>172</t>
         </is>
       </c>
       <c r="R5" s="2" t="inlineStr">
         <is>
-          <t>209961</t>
+          <t>68058</t>
         </is>
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>189111</t>
+          <t>55327</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>230241</t>
+          <t>81591</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
         <is>
-          <t>33,44%</t>
+          <t>31,08%</t>
         </is>
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>30,12%</t>
+          <t>25,26%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>36,67%</t>
+          <t>37,25%</t>
         </is>
       </c>
     </row>
@@ -3472,107 +3472,107 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>113</t>
+          <t>89</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>92325</t>
+          <t>47679</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>78462</t>
+          <t>36181</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>106259</t>
+          <t>58629</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>40,26%</t>
+          <t>48,38%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>34,22%</t>
+          <t>36,71%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>46,34%</t>
+          <t>59,49%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>260</t>
+          <t>119</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>155136</t>
+          <t>43620</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>138784</t>
+          <t>34393</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>171507</t>
+          <t>53121</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>38,93%</t>
+          <t>36,21%</t>
         </is>
       </c>
       <c r="O6" s="2" t="inlineStr">
         <is>
-          <t>34,82%</t>
+          <t>28,55%</t>
         </is>
       </c>
       <c r="P6" s="2" t="inlineStr">
         <is>
-          <t>43,03%</t>
+          <t>44,1%</t>
         </is>
       </c>
       <c r="Q6" s="2" t="inlineStr">
         <is>
-          <t>373</t>
+          <t>208</t>
         </is>
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
-          <t>247461</t>
+          <t>91298</t>
         </is>
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>227266</t>
+          <t>77505</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>268732</t>
+          <t>106496</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
         <is>
-          <t>39,42%</t>
+          <t>41,69%</t>
         </is>
       </c>
       <c r="V6" s="2" t="inlineStr">
         <is>
-          <t>36,2%</t>
+          <t>35,39%</t>
         </is>
       </c>
       <c r="W6" s="2" t="inlineStr">
         <is>
-          <t>42,8%</t>
+          <t>48,63%</t>
         </is>
       </c>
     </row>
@@ -3585,107 +3585,107 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>31</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>44198</t>
+          <t>18532</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>32969</t>
+          <t>11192</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>58561</t>
+          <t>30242</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>19,28%</t>
+          <t>18,8%</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>14,38%</t>
+          <t>11,36%</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>25,54%</t>
+          <t>30,69%</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>65</t>
+          <t>22</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>40961</t>
+          <t>8083</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>31566</t>
+          <t>4826</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>53598</t>
+          <t>13485</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>10,28%</t>
+          <t>6,71%</t>
         </is>
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>7,92%</t>
+          <t>4,01%</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>13,45%</t>
+          <t>11,19%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
         <is>
-          <t>116</t>
+          <t>53</t>
         </is>
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
-          <t>85159</t>
+          <t>26614</t>
         </is>
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>69177</t>
+          <t>17796</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>105755</t>
+          <t>39914</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
         <is>
-          <t>13,56%</t>
+          <t>12,15%</t>
         </is>
       </c>
       <c r="V7" s="2" t="inlineStr">
         <is>
-          <t>11,02%</t>
+          <t>8,13%</t>
         </is>
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
-          <t>16,84%</t>
+          <t>18,22%</t>
         </is>
       </c>
     </row>
@@ -3698,22 +3698,22 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>291</t>
+          <t>195</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>229294</t>
+          <t>98555</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>229294</t>
+          <t>98555</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>229294</t>
+          <t>98555</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -3733,22 +3733,22 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>698</t>
+          <t>297</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>398536</t>
+          <t>120457</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>398536</t>
+          <t>120457</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>398536</t>
+          <t>120457</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
@@ -3768,22 +3768,22 @@
       </c>
       <c r="Q8" s="2" t="inlineStr">
         <is>
-          <t>989</t>
+          <t>492</t>
         </is>
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
-          <t>627830</t>
+          <t>219011</t>
         </is>
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>627830</t>
+          <t>219011</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>627830</t>
+          <t>219011</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
@@ -3815,107 +3815,107 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>29</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>28766</t>
+          <t>11803</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>15041</t>
+          <t>7979</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>41483</t>
+          <t>16696</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>2,04%</t>
+          <t>3,3%</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>1,07%</t>
+          <t>2,23%</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>2,94%</t>
+          <t>4,67%</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>45</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>29243</t>
+          <t>19761</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>17480</t>
+          <t>14704</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>40335</t>
+          <t>26170</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>2,11%</t>
+          <t>5,57%</t>
         </is>
       </c>
       <c r="O9" s="2" t="inlineStr">
         <is>
-          <t>1,26%</t>
+          <t>4,15%</t>
         </is>
       </c>
       <c r="P9" s="2" t="inlineStr">
         <is>
-          <t>2,91%</t>
+          <t>7,38%</t>
         </is>
       </c>
       <c r="Q9" s="2" t="inlineStr">
         <is>
-          <t>84</t>
+          <t>74</t>
         </is>
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t>58009</t>
+          <t>31564</t>
         </is>
       </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>40501</t>
+          <t>24613</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>76611</t>
+          <t>40465</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
         <is>
-          <t>2,07%</t>
+          <t>4,43%</t>
         </is>
       </c>
       <c r="V9" s="2" t="inlineStr">
         <is>
-          <t>1,45%</t>
+          <t>3,46%</t>
         </is>
       </c>
       <c r="W9" s="2" t="inlineStr">
         <is>
-          <t>2,74%</t>
+          <t>5,68%</t>
         </is>
       </c>
     </row>
@@ -3928,107 +3928,107 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>167</t>
+          <t>138</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>142848</t>
+          <t>61387</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>81200</t>
+          <t>51752</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>183325</t>
+          <t>72450</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>10,14%</t>
+          <t>17,18%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>5,76%</t>
+          <t>14,49%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>13,01%</t>
+          <t>20,28%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>289</t>
+          <t>159</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>178142</t>
+          <t>70864</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>108758</t>
+          <t>60032</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>219633</t>
+          <t>82036</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>12,85%</t>
+          <t>19,98%</t>
         </is>
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>7,84%</t>
+          <t>16,93%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>15,84%</t>
+          <t>23,14%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
         <is>
-          <t>456</t>
+          <t>297</t>
         </is>
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>320989</t>
+          <t>132252</t>
         </is>
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>229383</t>
+          <t>118601</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>383949</t>
+          <t>147421</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
         <is>
-          <t>11,48%</t>
+          <t>18,58%</t>
         </is>
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>8,2%</t>
+          <t>16,66%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>13,73%</t>
+          <t>20,71%</t>
         </is>
       </c>
     </row>
@@ -4041,107 +4041,107 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>528</t>
+          <t>341</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>739758</t>
+          <t>151513</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>582714</t>
+          <t>139243</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>1021766</t>
+          <t>163723</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>52,49%</t>
+          <t>42,41%</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>41,35%</t>
+          <t>38,98%</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>72,5%</t>
+          <t>45,83%</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>812</t>
+          <t>388</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>794240</t>
+          <t>178226</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>661202</t>
+          <t>164810</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>1038876</t>
+          <t>190340</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>57,28%</t>
+          <t>50,26%</t>
         </is>
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>47,69%</t>
+          <t>46,48%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>74,93%</t>
+          <t>53,68%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
         <is>
-          <t>1340</t>
+          <t>729</t>
         </is>
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>1533999</t>
+          <t>329739</t>
         </is>
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>1304438</t>
+          <t>311847</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>1895500</t>
+          <t>347664</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
         <is>
-          <t>54,87%</t>
+          <t>46,32%</t>
         </is>
       </c>
       <c r="V11" s="2" t="inlineStr">
         <is>
-          <t>46,66%</t>
+          <t>43,81%</t>
         </is>
       </c>
       <c r="W11" s="2" t="inlineStr">
         <is>
-          <t>67,8%</t>
+          <t>48,84%</t>
         </is>
       </c>
     </row>
@@ -4154,107 +4154,107 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>382</t>
+          <t>288</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>498021</t>
+          <t>132559</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>290688</t>
+          <t>119983</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>621338</t>
+          <t>144500</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>35,34%</t>
+          <t>37,1%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>20,63%</t>
+          <t>33,58%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>44,09%</t>
+          <t>40,45%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>489</t>
+          <t>217</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>384864</t>
+          <t>85738</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>224233</t>
+          <t>75713</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>474160</t>
+          <t>97539</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>27,76%</t>
+          <t>24,18%</t>
         </is>
       </c>
       <c r="O12" s="2" t="inlineStr">
         <is>
-          <t>16,17%</t>
+          <t>21,35%</t>
         </is>
       </c>
       <c r="P12" s="2" t="inlineStr">
         <is>
-          <t>34,2%</t>
+          <t>27,51%</t>
         </is>
       </c>
       <c r="Q12" s="2" t="inlineStr">
         <is>
-          <t>871</t>
+          <t>505</t>
         </is>
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>882886</t>
+          <t>218297</t>
         </is>
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>646559</t>
+          <t>202852</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>1054009</t>
+          <t>236838</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
         <is>
-          <t>31,58%</t>
+          <t>30,67%</t>
         </is>
       </c>
       <c r="V12" s="2" t="inlineStr">
         <is>
-          <t>23,13%</t>
+          <t>28,5%</t>
         </is>
       </c>
       <c r="W12" s="2" t="inlineStr">
         <is>
-          <t>37,7%</t>
+          <t>33,27%</t>
         </is>
       </c>
     </row>
@@ -4267,22 +4267,22 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>1111</t>
+          <t>796</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>1409393</t>
+          <t>357262</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>1409393</t>
+          <t>357262</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>1409393</t>
+          <t>357262</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -4302,22 +4302,22 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>1640</t>
+          <t>809</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>1386489</t>
+          <t>354589</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>1386489</t>
+          <t>354589</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>1386489</t>
+          <t>354589</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
@@ -4337,22 +4337,22 @@
       </c>
       <c r="Q13" s="2" t="inlineStr">
         <is>
-          <t>2751</t>
+          <t>1605</t>
         </is>
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>2795883</t>
+          <t>711852</t>
         </is>
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>2795883</t>
+          <t>711852</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>2795883</t>
+          <t>711852</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
@@ -4389,102 +4389,102 @@
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>7920</t>
+          <t>3757</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>4053</t>
+          <t>1960</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>14333</t>
+          <t>7148</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>1,72%</t>
+          <t>1,67%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>0,88%</t>
+          <t>0,87%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>3,12%</t>
+          <t>3,18%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>13</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>9457</t>
+          <t>4933</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>5572</t>
+          <t>2578</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>14543</t>
+          <t>7980</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>2,13%</t>
+          <t>1,74%</t>
         </is>
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>1,26%</t>
+          <t>0,91%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>3,28%</t>
+          <t>2,82%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>24</t>
         </is>
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>17378</t>
+          <t>8690</t>
         </is>
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>11470</t>
+          <t>5641</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>25417</t>
+          <t>13432</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
         <is>
-          <t>1,92%</t>
+          <t>1,71%</t>
         </is>
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>1,27%</t>
+          <t>1,11%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>2,81%</t>
+          <t>2,65%</t>
         </is>
       </c>
     </row>
@@ -4497,107 +4497,107 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>47</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>43597</t>
+          <t>16783</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>31920</t>
+          <t>11932</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>57112</t>
+          <t>21874</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>9,48%</t>
+          <t>7,47%</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>6,94%</t>
+          <t>5,31%</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>12,42%</t>
+          <t>9,74%</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>79</t>
+          <t>80</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>42560</t>
+          <t>29996</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>33158</t>
+          <t>23084</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>53123</t>
+          <t>37792</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>9,6%</t>
+          <t>10,59%</t>
         </is>
       </c>
       <c r="O15" s="2" t="inlineStr">
         <is>
-          <t>7,48%</t>
+          <t>8,15%</t>
         </is>
       </c>
       <c r="P15" s="2" t="inlineStr">
         <is>
-          <t>11,98%</t>
+          <t>13,35%</t>
         </is>
       </c>
       <c r="Q15" s="2" t="inlineStr">
         <is>
-          <t>128</t>
+          <t>127</t>
         </is>
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>86157</t>
+          <t>46779</t>
         </is>
       </c>
       <c r="S15" s="2" t="inlineStr">
         <is>
-          <t>71561</t>
+          <t>38754</t>
         </is>
       </c>
       <c r="T15" s="2" t="inlineStr">
         <is>
-          <t>102698</t>
+          <t>56594</t>
         </is>
       </c>
       <c r="U15" s="2" t="inlineStr">
         <is>
-          <t>9,54%</t>
+          <t>9,21%</t>
         </is>
       </c>
       <c r="V15" s="2" t="inlineStr">
         <is>
-          <t>7,92%</t>
+          <t>7,63%</t>
         </is>
       </c>
       <c r="W15" s="2" t="inlineStr">
         <is>
-          <t>11,37%</t>
+          <t>11,15%</t>
         </is>
       </c>
     </row>
@@ -4610,107 +4610,107 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>253</t>
+          <t>274</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>222405</t>
+          <t>93317</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>199641</t>
+          <t>83735</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>245335</t>
+          <t>103639</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>48,37%</t>
+          <t>41,55%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>43,42%</t>
+          <t>37,28%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>53,36%</t>
+          <t>46,14%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>320</t>
+          <t>322</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>204757</t>
+          <t>120935</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>186707</t>
+          <t>107903</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>223560</t>
+          <t>132449</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>46,18%</t>
+          <t>42,71%</t>
         </is>
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>42,11%</t>
+          <t>38,11%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>50,42%</t>
+          <t>46,78%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
         <is>
-          <t>573</t>
+          <t>596</t>
         </is>
       </c>
       <c r="R16" s="2" t="inlineStr">
         <is>
-          <t>427162</t>
+          <t>214252</t>
         </is>
       </c>
       <c r="S16" s="2" t="inlineStr">
         <is>
-          <t>398678</t>
+          <t>198500</t>
         </is>
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>456345</t>
+          <t>229930</t>
         </is>
       </c>
       <c r="U16" s="2" t="inlineStr">
         <is>
-          <t>47,3%</t>
+          <t>42,2%</t>
         </is>
       </c>
       <c r="V16" s="2" t="inlineStr">
         <is>
-          <t>44,14%</t>
+          <t>39,09%</t>
         </is>
       </c>
       <c r="W16" s="2" t="inlineStr">
         <is>
-          <t>50,53%</t>
+          <t>45,28%</t>
         </is>
       </c>
     </row>
@@ -4723,107 +4723,107 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>174</t>
+          <t>311</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>185879</t>
+          <t>110753</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>162423</t>
+          <t>100895</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>208548</t>
+          <t>120970</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>40,43%</t>
+          <t>49,31%</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>35,32%</t>
+          <t>44,92%</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>45,36%</t>
+          <t>53,86%</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>250</t>
+          <t>347</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>186599</t>
+          <t>127267</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>167200</t>
+          <t>115594</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>205511</t>
+          <t>139174</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>42,09%</t>
+          <t>44,95%</t>
         </is>
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>37,71%</t>
+          <t>40,83%</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>46,35%</t>
+          <t>49,16%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
         <is>
-          <t>424</t>
+          <t>658</t>
         </is>
       </c>
       <c r="R17" s="2" t="inlineStr">
         <is>
-          <t>372478</t>
+          <t>238020</t>
         </is>
       </c>
       <c r="S17" s="2" t="inlineStr">
         <is>
-          <t>345609</t>
+          <t>221798</t>
         </is>
       </c>
       <c r="T17" s="2" t="inlineStr">
         <is>
-          <t>401997</t>
+          <t>253740</t>
         </is>
       </c>
       <c r="U17" s="2" t="inlineStr">
         <is>
-          <t>41,24%</t>
+          <t>46,88%</t>
         </is>
       </c>
       <c r="V17" s="2" t="inlineStr">
         <is>
-          <t>38,27%</t>
+          <t>43,68%</t>
         </is>
       </c>
       <c r="W17" s="2" t="inlineStr">
         <is>
-          <t>44,51%</t>
+          <t>49,97%</t>
         </is>
       </c>
     </row>
@@ -4836,22 +4836,22 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>487</t>
+          <t>643</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>459801</t>
+          <t>224610</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>459801</t>
+          <t>224610</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>459801</t>
+          <t>224610</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -4871,22 +4871,22 @@
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>666</t>
+          <t>762</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>443374</t>
+          <t>283131</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>443374</t>
+          <t>283131</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>443374</t>
+          <t>283131</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
@@ -4906,22 +4906,22 @@
       </c>
       <c r="Q18" s="2" t="inlineStr">
         <is>
-          <t>1153</t>
+          <t>1405</t>
         </is>
       </c>
       <c r="R18" s="2" t="inlineStr">
         <is>
-          <t>903175</t>
+          <t>507741</t>
         </is>
       </c>
       <c r="S18" s="2" t="inlineStr">
         <is>
-          <t>903175</t>
+          <t>507741</t>
         </is>
       </c>
       <c r="T18" s="2" t="inlineStr">
         <is>
-          <t>903175</t>
+          <t>507741</t>
         </is>
       </c>
       <c r="U18" s="2" t="inlineStr">
@@ -4953,107 +4953,107 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>57</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>61419</t>
+          <t>23467</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>39215</t>
+          <t>17548</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>78217</t>
+          <t>31839</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>2,93%</t>
+          <t>3,45%</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>1,87%</t>
+          <t>2,58%</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>3,73%</t>
+          <t>4,68%</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>178</t>
+          <t>100</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>99216</t>
+          <t>49829</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>73531</t>
+          <t>39840</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>119028</t>
+          <t>63381</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>4,45%</t>
+          <t>6,57%</t>
         </is>
       </c>
       <c r="O19" s="2" t="inlineStr">
         <is>
-          <t>3,3%</t>
+          <t>5,25%</t>
         </is>
       </c>
       <c r="P19" s="2" t="inlineStr">
         <is>
-          <t>5,34%</t>
+          <t>8,36%</t>
         </is>
       </c>
       <c r="Q19" s="2" t="inlineStr">
         <is>
-          <t>258</t>
+          <t>157</t>
         </is>
       </c>
       <c r="R19" s="2" t="inlineStr">
         <is>
-          <t>160635</t>
+          <t>73295</t>
         </is>
       </c>
       <c r="S19" s="2" t="inlineStr">
         <is>
-          <t>125503</t>
+          <t>60852</t>
         </is>
       </c>
       <c r="T19" s="2" t="inlineStr">
         <is>
-          <t>185741</t>
+          <t>89097</t>
         </is>
       </c>
       <c r="U19" s="2" t="inlineStr">
         <is>
-          <t>3,71%</t>
+          <t>5,09%</t>
         </is>
       </c>
       <c r="V19" s="2" t="inlineStr">
         <is>
-          <t>2,9%</t>
+          <t>4,23%</t>
         </is>
       </c>
       <c r="W19" s="2" t="inlineStr">
         <is>
-          <t>4,29%</t>
+          <t>6,19%</t>
         </is>
       </c>
     </row>
@@ -5066,107 +5066,107 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>308</t>
+          <t>243</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>254483</t>
+          <t>102608</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>169818</t>
+          <t>88738</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>297199</t>
+          <t>118181</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>12,13%</t>
+          <t>15,08%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>8,09%</t>
+          <t>13,04%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>14,16%</t>
+          <t>17,37%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>630</t>
+          <t>353</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>362625</t>
+          <t>144480</t>
         </is>
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>256862</t>
+          <t>128275</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>419772</t>
+          <t>162652</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
         <is>
-          <t>16,27%</t>
+          <t>19,06%</t>
         </is>
       </c>
       <c r="O20" s="2" t="inlineStr">
         <is>
-          <t>11,53%</t>
+          <t>16,92%</t>
         </is>
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>18,84%</t>
+          <t>21,45%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
         <is>
-          <t>938</t>
+          <t>596</t>
         </is>
       </c>
       <c r="R20" s="2" t="inlineStr">
         <is>
-          <t>617108</t>
+          <t>247089</t>
         </is>
       </c>
       <c r="S20" s="2" t="inlineStr">
         <is>
-          <t>494632</t>
+          <t>224902</t>
         </is>
       </c>
       <c r="T20" s="2" t="inlineStr">
         <is>
-          <t>691555</t>
+          <t>269989</t>
         </is>
       </c>
       <c r="U20" s="2" t="inlineStr">
         <is>
-          <t>14,26%</t>
+          <t>17,18%</t>
         </is>
       </c>
       <c r="V20" s="2" t="inlineStr">
         <is>
-          <t>11,43%</t>
+          <t>15,63%</t>
         </is>
       </c>
       <c r="W20" s="2" t="inlineStr">
         <is>
-          <t>15,98%</t>
+          <t>18,77%</t>
         </is>
       </c>
     </row>
@@ -5179,107 +5179,107 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>894</t>
+          <t>704</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>1054488</t>
+          <t>292509</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>900308</t>
+          <t>273257</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>1409434</t>
+          <t>311962</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>50,25%</t>
+          <t>42,99%</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>42,9%</t>
+          <t>40,16%</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>67,16%</t>
+          <t>45,85%</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>1392</t>
+          <t>829</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>1154134</t>
+          <t>342780</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>1011661</t>
+          <t>324706</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>1463046</t>
+          <t>365221</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>51,79%</t>
+          <t>45,21%</t>
         </is>
       </c>
       <c r="O21" s="2" t="inlineStr">
         <is>
-          <t>45,4%</t>
+          <t>42,83%</t>
         </is>
       </c>
       <c r="P21" s="2" t="inlineStr">
         <is>
-          <t>65,65%</t>
+          <t>48,17%</t>
         </is>
       </c>
       <c r="Q21" s="2" t="inlineStr">
         <is>
-          <t>2286</t>
+          <t>1533</t>
         </is>
       </c>
       <c r="R21" s="2" t="inlineStr">
         <is>
-          <t>2208622</t>
+          <t>635289</t>
         </is>
       </c>
       <c r="S21" s="2" t="inlineStr">
         <is>
-          <t>1995169</t>
+          <t>606572</t>
         </is>
       </c>
       <c r="T21" s="2" t="inlineStr">
         <is>
-          <t>2671497</t>
+          <t>664818</t>
         </is>
       </c>
       <c r="U21" s="2" t="inlineStr">
         <is>
-          <t>51,04%</t>
+          <t>44,16%</t>
         </is>
       </c>
       <c r="V21" s="2" t="inlineStr">
         <is>
-          <t>46,11%</t>
+          <t>42,16%</t>
         </is>
       </c>
       <c r="W21" s="2" t="inlineStr">
         <is>
-          <t>61,74%</t>
+          <t>46,21%</t>
         </is>
       </c>
     </row>
@@ -5292,107 +5292,107 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>607</t>
+          <t>630</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>728098</t>
+          <t>261844</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>472446</t>
+          <t>243085</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>846557</t>
+          <t>282438</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>34,7%</t>
+          <t>38,48%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>22,51%</t>
+          <t>35,73%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>40,34%</t>
+          <t>41,51%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>804</t>
+          <t>586</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>612425</t>
+          <t>221088</t>
         </is>
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>453431</t>
+          <t>203432</t>
         </is>
       </c>
       <c r="M22" s="2" t="inlineStr">
         <is>
-          <t>700093</t>
+          <t>239759</t>
         </is>
       </c>
       <c r="N22" s="2" t="inlineStr">
         <is>
-          <t>27,48%</t>
+          <t>29,16%</t>
         </is>
       </c>
       <c r="O22" s="2" t="inlineStr">
         <is>
-          <t>20,35%</t>
+          <t>26,83%</t>
         </is>
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>31,42%</t>
+          <t>31,62%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
         <is>
-          <t>1411</t>
+          <t>1216</t>
         </is>
       </c>
       <c r="R22" s="2" t="inlineStr">
         <is>
-          <t>1340522</t>
+          <t>482932</t>
         </is>
       </c>
       <c r="S22" s="2" t="inlineStr">
         <is>
-          <t>1043394</t>
+          <t>457178</t>
         </is>
       </c>
       <c r="T22" s="2" t="inlineStr">
         <is>
-          <t>1481387</t>
+          <t>510496</t>
         </is>
       </c>
       <c r="U22" s="2" t="inlineStr">
         <is>
-          <t>30,98%</t>
+          <t>33,57%</t>
         </is>
       </c>
       <c r="V22" s="2" t="inlineStr">
         <is>
-          <t>24,11%</t>
+          <t>31,78%</t>
         </is>
       </c>
       <c r="W22" s="2" t="inlineStr">
         <is>
-          <t>34,24%</t>
+          <t>35,49%</t>
         </is>
       </c>
     </row>
@@ -5405,22 +5405,22 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>1889</t>
+          <t>1634</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>2098488</t>
+          <t>680428</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>2098488</t>
+          <t>680428</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>2098488</t>
+          <t>680428</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
@@ -5440,22 +5440,22 @@
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>3004</t>
+          <t>1868</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>2228400</t>
+          <t>758177</t>
         </is>
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>2228400</t>
+          <t>758177</t>
         </is>
       </c>
       <c r="M23" s="2" t="inlineStr">
         <is>
-          <t>2228400</t>
+          <t>758177</t>
         </is>
       </c>
       <c r="N23" s="2" t="inlineStr">
@@ -5475,22 +5475,22 @@
       </c>
       <c r="Q23" s="2" t="inlineStr">
         <is>
-          <t>4893</t>
+          <t>3502</t>
         </is>
       </c>
       <c r="R23" s="2" t="inlineStr">
         <is>
-          <t>4326887</t>
+          <t>1438605</t>
         </is>
       </c>
       <c r="S23" s="2" t="inlineStr">
         <is>
-          <t>4326887</t>
+          <t>1438605</t>
         </is>
       </c>
       <c r="T23" s="2" t="inlineStr">
         <is>
-          <t>4326887</t>
+          <t>1438605</t>
         </is>
       </c>
       <c r="U23" s="2" t="inlineStr">
@@ -8091,7 +8091,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Salud general percibida en Barcelona (tasa de respuesta: 100,0%)</t>
+          <t>Salud general percibida en País Vasco (tasa de respuesta: 100,0%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -8276,107 +8276,107 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>11</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>7907</t>
+          <t>3311</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>4042</t>
+          <t>1438</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>14227</t>
+          <t>6858</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>8,02%</t>
+          <t>4,54%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>4,1%</t>
+          <t>1,97%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>14,44%</t>
+          <t>9,39%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>39</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>25135</t>
+          <t>10938</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>17983</t>
+          <t>7205</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>35991</t>
+          <t>15110</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>20,87%</t>
+          <t>9,4%</t>
         </is>
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>14,93%</t>
+          <t>6,19%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>29,88%</t>
+          <t>12,99%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
         <is>
-          <t>59</t>
+          <t>50</t>
         </is>
       </c>
       <c r="R4" s="2" t="inlineStr">
         <is>
-          <t>33042</t>
+          <t>14249</t>
         </is>
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>23241</t>
+          <t>10055</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>44727</t>
+          <t>20063</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
         <is>
-          <t>15,09%</t>
+          <t>7,52%</t>
         </is>
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>10,61%</t>
+          <t>5,31%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>20,42%</t>
+          <t>10,6%</t>
         </is>
       </c>
     </row>
@@ -8389,107 +8389,107 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>58</t>
+          <t>62</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>24438</t>
+          <t>17251</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>16835</t>
+          <t>13030</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>34271</t>
+          <t>22097</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>24,8%</t>
+          <t>23,63%</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>17,08%</t>
+          <t>17,85%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>34,77%</t>
+          <t>30,27%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>114</t>
+          <t>132</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>43620</t>
+          <t>34677</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>35279</t>
+          <t>28886</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>53361</t>
+          <t>41440</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>36,21%</t>
+          <t>29,8%</t>
         </is>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>29,29%</t>
+          <t>24,83%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>44,3%</t>
+          <t>35,62%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
         <is>
-          <t>172</t>
+          <t>194</t>
         </is>
       </c>
       <c r="R5" s="2" t="inlineStr">
         <is>
-          <t>68058</t>
+          <t>51928</t>
         </is>
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>55327</t>
+          <t>44971</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>81591</t>
+          <t>60058</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
         <is>
-          <t>31,08%</t>
+          <t>27,42%</t>
         </is>
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>25,26%</t>
+          <t>23,75%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>37,25%</t>
+          <t>31,72%</t>
         </is>
       </c>
     </row>
@@ -8502,107 +8502,107 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>89</t>
+          <t>107</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>47679</t>
+          <t>32985</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>36181</t>
+          <t>27257</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>58629</t>
+          <t>38810</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>48,38%</t>
+          <t>45,18%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>36,71%</t>
+          <t>37,34%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>59,49%</t>
+          <t>53,16%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>119</t>
+          <t>159</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>43620</t>
+          <t>43937</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>34393</t>
+          <t>37683</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>53121</t>
+          <t>50571</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>36,21%</t>
+          <t>37,76%</t>
         </is>
       </c>
       <c r="O6" s="2" t="inlineStr">
         <is>
-          <t>28,55%</t>
+          <t>32,39%</t>
         </is>
       </c>
       <c r="P6" s="2" t="inlineStr">
         <is>
-          <t>44,1%</t>
+          <t>43,47%</t>
         </is>
       </c>
       <c r="Q6" s="2" t="inlineStr">
         <is>
-          <t>208</t>
+          <t>266</t>
         </is>
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
-          <t>91298</t>
+          <t>76922</t>
         </is>
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>77505</t>
+          <t>68049</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>106496</t>
+          <t>85687</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
         <is>
-          <t>41,69%</t>
+          <t>40,62%</t>
         </is>
       </c>
       <c r="V6" s="2" t="inlineStr">
         <is>
-          <t>35,39%</t>
+          <t>35,94%</t>
         </is>
       </c>
       <c r="W6" s="2" t="inlineStr">
         <is>
-          <t>48,63%</t>
+          <t>45,25%</t>
         </is>
       </c>
     </row>
@@ -8615,107 +8615,107 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>57</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>18532</t>
+          <t>19457</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>11192</t>
+          <t>14734</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>30242</t>
+          <t>25427</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>18,8%</t>
+          <t>26,65%</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>11,36%</t>
+          <t>20,18%</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>30,69%</t>
+          <t>34,83%</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>85</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>8083</t>
+          <t>26797</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>4826</t>
+          <t>21125</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>13485</t>
+          <t>32977</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>6,71%</t>
+          <t>23,03%</t>
         </is>
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>4,01%</t>
+          <t>18,16%</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>11,19%</t>
+          <t>28,34%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>142</t>
         </is>
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
-          <t>26614</t>
+          <t>46254</t>
         </is>
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>17796</t>
+          <t>38173</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>39914</t>
+          <t>54403</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
         <is>
-          <t>12,15%</t>
+          <t>24,43%</t>
         </is>
       </c>
       <c r="V7" s="2" t="inlineStr">
         <is>
-          <t>8,13%</t>
+          <t>20,16%</t>
         </is>
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
-          <t>18,22%</t>
+          <t>28,73%</t>
         </is>
       </c>
     </row>
@@ -8728,22 +8728,22 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>195</t>
+          <t>237</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>98555</t>
+          <t>73004</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>98555</t>
+          <t>73004</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>98555</t>
+          <t>73004</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -8763,22 +8763,22 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>297</t>
+          <t>415</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>120457</t>
+          <t>116349</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>120457</t>
+          <t>116349</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>120457</t>
+          <t>116349</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
@@ -8798,22 +8798,22 @@
       </c>
       <c r="Q8" s="2" t="inlineStr">
         <is>
-          <t>492</t>
+          <t>652</t>
         </is>
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
-          <t>219011</t>
+          <t>189353</t>
         </is>
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>219011</t>
+          <t>189353</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>219011</t>
+          <t>189353</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
@@ -8845,107 +8845,107 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>46</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>11803</t>
+          <t>12164</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>7979</t>
+          <t>8533</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>16696</t>
+          <t>17760</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>3,3%</t>
+          <t>2,6%</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>2,23%</t>
+          <t>1,83%</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>4,67%</t>
+          <t>3,8%</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>57</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>19761</t>
+          <t>16638</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>14704</t>
+          <t>12227</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>26170</t>
+          <t>22476</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>5,57%</t>
+          <t>3,69%</t>
         </is>
       </c>
       <c r="O9" s="2" t="inlineStr">
         <is>
-          <t>4,15%</t>
+          <t>2,71%</t>
         </is>
       </c>
       <c r="P9" s="2" t="inlineStr">
         <is>
-          <t>7,38%</t>
+          <t>4,98%</t>
         </is>
       </c>
       <c r="Q9" s="2" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>103</t>
         </is>
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t>31564</t>
+          <t>28802</t>
         </is>
       </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>24613</t>
+          <t>23066</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>40465</t>
+          <t>36415</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
         <is>
-          <t>4,43%</t>
+          <t>3,14%</t>
         </is>
       </c>
       <c r="V9" s="2" t="inlineStr">
         <is>
-          <t>3,46%</t>
+          <t>2,51%</t>
         </is>
       </c>
       <c r="W9" s="2" t="inlineStr">
         <is>
-          <t>5,68%</t>
+          <t>3,97%</t>
         </is>
       </c>
     </row>
@@ -8958,107 +8958,107 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>138</t>
+          <t>206</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>61387</t>
+          <t>65109</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>51752</t>
+          <t>55169</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>72450</t>
+          <t>75287</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>17,18%</t>
+          <t>13,94%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>14,49%</t>
+          <t>11,81%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>20,28%</t>
+          <t>16,11%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>159</t>
+          <t>262</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>70864</t>
+          <t>77289</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>60032</t>
+          <t>66609</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>82036</t>
+          <t>88220</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>19,98%</t>
+          <t>17,13%</t>
         </is>
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>16,93%</t>
+          <t>14,77%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>23,14%</t>
+          <t>19,56%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
         <is>
-          <t>297</t>
+          <t>468</t>
         </is>
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>132252</t>
+          <t>142398</t>
         </is>
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>118601</t>
+          <t>129036</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>147421</t>
+          <t>158170</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
         <is>
-          <t>18,58%</t>
+          <t>15,51%</t>
         </is>
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>16,66%</t>
+          <t>14,05%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>20,71%</t>
+          <t>17,22%</t>
         </is>
       </c>
     </row>
@@ -9071,107 +9071,107 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>341</t>
+          <t>600</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>151513</t>
+          <t>195706</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>139243</t>
+          <t>181418</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>163723</t>
+          <t>211734</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>42,41%</t>
+          <t>41,89%</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>38,98%</t>
+          <t>38,83%</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>45,83%</t>
+          <t>45,32%</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>388</t>
+          <t>585</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>178226</t>
+          <t>185608</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>164810</t>
+          <t>172602</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>190340</t>
+          <t>201572</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>50,26%</t>
+          <t>41,14%</t>
         </is>
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>46,48%</t>
+          <t>38,26%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>53,68%</t>
+          <t>44,68%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
         <is>
-          <t>729</t>
+          <t>1185</t>
         </is>
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>329739</t>
+          <t>381314</t>
         </is>
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>311847</t>
+          <t>360635</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>347664</t>
+          <t>403565</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
         <is>
-          <t>46,32%</t>
+          <t>41,52%</t>
         </is>
       </c>
       <c r="V11" s="2" t="inlineStr">
         <is>
-          <t>43,81%</t>
+          <t>39,27%</t>
         </is>
       </c>
       <c r="W11" s="2" t="inlineStr">
         <is>
-          <t>48,84%</t>
+          <t>43,95%</t>
         </is>
       </c>
     </row>
@@ -9184,107 +9184,107 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>288</t>
+          <t>501</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>132559</t>
+          <t>194219</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>119983</t>
+          <t>178139</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>144500</t>
+          <t>209198</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>37,1%</t>
+          <t>41,57%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>33,58%</t>
+          <t>38,13%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>40,45%</t>
+          <t>44,78%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>217</t>
+          <t>458</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>85738</t>
+          <t>171579</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>75713</t>
+          <t>157462</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>97539</t>
+          <t>185991</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>24,18%</t>
+          <t>38,03%</t>
         </is>
       </c>
       <c r="O12" s="2" t="inlineStr">
         <is>
-          <t>21,35%</t>
+          <t>34,91%</t>
         </is>
       </c>
       <c r="P12" s="2" t="inlineStr">
         <is>
-          <t>27,51%</t>
+          <t>41,23%</t>
         </is>
       </c>
       <c r="Q12" s="2" t="inlineStr">
         <is>
-          <t>505</t>
+          <t>959</t>
         </is>
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>218297</t>
+          <t>365798</t>
         </is>
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>202852</t>
+          <t>343960</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>236838</t>
+          <t>386677</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
         <is>
-          <t>30,67%</t>
+          <t>39,83%</t>
         </is>
       </c>
       <c r="V12" s="2" t="inlineStr">
         <is>
-          <t>28,5%</t>
+          <t>37,46%</t>
         </is>
       </c>
       <c r="W12" s="2" t="inlineStr">
         <is>
-          <t>33,27%</t>
+          <t>42,11%</t>
         </is>
       </c>
     </row>
@@ -9297,22 +9297,22 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>796</t>
+          <t>1353</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>357262</t>
+          <t>467198</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>357262</t>
+          <t>467198</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>357262</t>
+          <t>467198</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -9332,22 +9332,22 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>809</t>
+          <t>1362</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>354589</t>
+          <t>451114</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>354589</t>
+          <t>451114</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>354589</t>
+          <t>451114</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
@@ -9367,22 +9367,22 @@
       </c>
       <c r="Q13" s="2" t="inlineStr">
         <is>
-          <t>1605</t>
+          <t>2715</t>
         </is>
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>711852</t>
+          <t>918312</t>
         </is>
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>711852</t>
+          <t>918312</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>711852</t>
+          <t>918312</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
@@ -9414,107 +9414,107 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>9</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>3757</t>
+          <t>2142</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>1960</t>
+          <t>948</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>7148</t>
+          <t>4113</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>1,67%</t>
+          <t>1,04%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>0,87%</t>
+          <t>0,46%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>3,18%</t>
+          <t>2,0%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>10</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>4933</t>
+          <t>3043</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>2578</t>
+          <t>1472</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>7980</t>
+          <t>6074</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>1,74%</t>
+          <t>1,21%</t>
         </is>
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>0,91%</t>
+          <t>0,58%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>2,82%</t>
+          <t>2,41%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>19</t>
         </is>
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>8690</t>
+          <t>5185</t>
         </is>
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>5641</t>
+          <t>3043</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>13432</t>
+          <t>8279</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
         <is>
-          <t>1,71%</t>
+          <t>1,13%</t>
         </is>
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>1,11%</t>
+          <t>0,66%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>2,65%</t>
+          <t>1,81%</t>
         </is>
       </c>
     </row>
@@ -9527,107 +9527,107 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>43</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>16783</t>
+          <t>17412</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>11932</t>
+          <t>11563</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>21874</t>
+          <t>25343</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>7,47%</t>
+          <t>8,46%</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>5,31%</t>
+          <t>5,62%</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>9,74%</t>
+          <t>12,31%</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>66</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>29996</t>
+          <t>20211</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>23084</t>
+          <t>14760</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>37792</t>
+          <t>27094</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>10,59%</t>
+          <t>8,01%</t>
         </is>
       </c>
       <c r="O15" s="2" t="inlineStr">
         <is>
-          <t>8,15%</t>
+          <t>5,85%</t>
         </is>
       </c>
       <c r="P15" s="2" t="inlineStr">
         <is>
-          <t>13,35%</t>
+          <t>10,74%</t>
         </is>
       </c>
       <c r="Q15" s="2" t="inlineStr">
         <is>
-          <t>127</t>
+          <t>109</t>
         </is>
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>46779</t>
+          <t>37623</t>
         </is>
       </c>
       <c r="S15" s="2" t="inlineStr">
         <is>
-          <t>38754</t>
+          <t>29671</t>
         </is>
       </c>
       <c r="T15" s="2" t="inlineStr">
         <is>
-          <t>56594</t>
+          <t>47944</t>
         </is>
       </c>
       <c r="U15" s="2" t="inlineStr">
         <is>
-          <t>9,21%</t>
+          <t>8,21%</t>
         </is>
       </c>
       <c r="V15" s="2" t="inlineStr">
         <is>
-          <t>7,63%</t>
+          <t>6,47%</t>
         </is>
       </c>
       <c r="W15" s="2" t="inlineStr">
         <is>
-          <t>11,15%</t>
+          <t>10,46%</t>
         </is>
       </c>
     </row>
@@ -9640,107 +9640,107 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>274</t>
+          <t>186</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>93317</t>
+          <t>73469</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>83735</t>
+          <t>63537</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>103639</t>
+          <t>84121</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>41,55%</t>
+          <t>35,69%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>37,28%</t>
+          <t>30,86%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>46,14%</t>
+          <t>40,86%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>322</t>
+          <t>283</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>120935</t>
+          <t>101638</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>107903</t>
+          <t>90510</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>132449</t>
+          <t>112694</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>42,71%</t>
+          <t>40,28%</t>
         </is>
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>38,11%</t>
+          <t>35,87%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>46,78%</t>
+          <t>44,66%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
         <is>
-          <t>596</t>
+          <t>469</t>
         </is>
       </c>
       <c r="R16" s="2" t="inlineStr">
         <is>
-          <t>214252</t>
+          <t>175107</t>
         </is>
       </c>
       <c r="S16" s="2" t="inlineStr">
         <is>
-          <t>198500</t>
+          <t>159395</t>
         </is>
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>229930</t>
+          <t>191632</t>
         </is>
       </c>
       <c r="U16" s="2" t="inlineStr">
         <is>
-          <t>42,2%</t>
+          <t>38,21%</t>
         </is>
       </c>
       <c r="V16" s="2" t="inlineStr">
         <is>
-          <t>39,09%</t>
+          <t>34,78%</t>
         </is>
       </c>
       <c r="W16" s="2" t="inlineStr">
         <is>
-          <t>45,28%</t>
+          <t>41,82%</t>
         </is>
       </c>
     </row>
@@ -9753,107 +9753,107 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>311</t>
+          <t>261</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>110753</t>
+          <t>112857</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>100895</t>
+          <t>100937</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>120970</t>
+          <t>123947</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>49,31%</t>
+          <t>54,82%</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>44,92%</t>
+          <t>49,03%</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>53,86%</t>
+          <t>60,2%</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>347</t>
+          <t>307</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>127267</t>
+          <t>127462</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>115594</t>
+          <t>115198</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>139174</t>
+          <t>138703</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>44,95%</t>
+          <t>50,51%</t>
         </is>
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>40,83%</t>
+          <t>45,65%</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>49,16%</t>
+          <t>54,96%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
         <is>
-          <t>658</t>
+          <t>568</t>
         </is>
       </c>
       <c r="R17" s="2" t="inlineStr">
         <is>
-          <t>238020</t>
+          <t>240319</t>
         </is>
       </c>
       <c r="S17" s="2" t="inlineStr">
         <is>
-          <t>221798</t>
+          <t>224404</t>
         </is>
       </c>
       <c r="T17" s="2" t="inlineStr">
         <is>
-          <t>253740</t>
+          <t>256841</t>
         </is>
       </c>
       <c r="U17" s="2" t="inlineStr">
         <is>
-          <t>46,88%</t>
+          <t>52,44%</t>
         </is>
       </c>
       <c r="V17" s="2" t="inlineStr">
         <is>
-          <t>43,68%</t>
+          <t>48,97%</t>
         </is>
       </c>
       <c r="W17" s="2" t="inlineStr">
         <is>
-          <t>49,97%</t>
+          <t>56,05%</t>
         </is>
       </c>
     </row>
@@ -9866,22 +9866,22 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>643</t>
+          <t>499</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>224610</t>
+          <t>205880</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>224610</t>
+          <t>205880</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>224610</t>
+          <t>205880</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -9901,22 +9901,22 @@
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>762</t>
+          <t>666</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>283131</t>
+          <t>252354</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>283131</t>
+          <t>252354</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>283131</t>
+          <t>252354</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
@@ -9936,22 +9936,22 @@
       </c>
       <c r="Q18" s="2" t="inlineStr">
         <is>
-          <t>1405</t>
+          <t>1165</t>
         </is>
       </c>
       <c r="R18" s="2" t="inlineStr">
         <is>
-          <t>507741</t>
+          <t>458234</t>
         </is>
       </c>
       <c r="S18" s="2" t="inlineStr">
         <is>
-          <t>507741</t>
+          <t>458234</t>
         </is>
       </c>
       <c r="T18" s="2" t="inlineStr">
         <is>
-          <t>507741</t>
+          <t>458234</t>
         </is>
       </c>
       <c r="U18" s="2" t="inlineStr">
@@ -9983,107 +9983,107 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>66</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>23467</t>
+          <t>17617</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>17548</t>
+          <t>13202</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>31839</t>
+          <t>23884</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>3,45%</t>
+          <t>2,36%</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
+          <t>1,77%</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>3,2%</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>106</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>30618</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>23844</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>37342</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>3,73%</t>
+        </is>
+      </c>
+      <c r="O19" s="2" t="inlineStr">
+        <is>
+          <t>2,91%</t>
+        </is>
+      </c>
+      <c r="P19" s="2" t="inlineStr">
+        <is>
+          <t>4,55%</t>
+        </is>
+      </c>
+      <c r="Q19" s="2" t="inlineStr">
+        <is>
+          <t>172</t>
+        </is>
+      </c>
+      <c r="R19" s="2" t="inlineStr">
+        <is>
+          <t>48235</t>
+        </is>
+      </c>
+      <c r="S19" s="2" t="inlineStr">
+        <is>
+          <t>40390</t>
+        </is>
+      </c>
+      <c r="T19" s="2" t="inlineStr">
+        <is>
+          <t>58139</t>
+        </is>
+      </c>
+      <c r="U19" s="2" t="inlineStr">
+        <is>
+          <t>3,08%</t>
+        </is>
+      </c>
+      <c r="V19" s="2" t="inlineStr">
+        <is>
           <t>2,58%</t>
         </is>
       </c>
-      <c r="I19" s="2" t="inlineStr">
-        <is>
-          <t>4,68%</t>
-        </is>
-      </c>
-      <c r="J19" s="2" t="inlineStr">
-        <is>
-          <t>100</t>
-        </is>
-      </c>
-      <c r="K19" s="2" t="inlineStr">
-        <is>
-          <t>49829</t>
-        </is>
-      </c>
-      <c r="L19" s="2" t="inlineStr">
-        <is>
-          <t>39840</t>
-        </is>
-      </c>
-      <c r="M19" s="2" t="inlineStr">
-        <is>
-          <t>63381</t>
-        </is>
-      </c>
-      <c r="N19" s="2" t="inlineStr">
-        <is>
-          <t>6,57%</t>
-        </is>
-      </c>
-      <c r="O19" s="2" t="inlineStr">
-        <is>
-          <t>5,25%</t>
-        </is>
-      </c>
-      <c r="P19" s="2" t="inlineStr">
-        <is>
-          <t>8,36%</t>
-        </is>
-      </c>
-      <c r="Q19" s="2" t="inlineStr">
-        <is>
-          <t>157</t>
-        </is>
-      </c>
-      <c r="R19" s="2" t="inlineStr">
-        <is>
-          <t>73295</t>
-        </is>
-      </c>
-      <c r="S19" s="2" t="inlineStr">
-        <is>
-          <t>60852</t>
-        </is>
-      </c>
-      <c r="T19" s="2" t="inlineStr">
-        <is>
-          <t>89097</t>
-        </is>
-      </c>
-      <c r="U19" s="2" t="inlineStr">
-        <is>
-          <t>5,09%</t>
-        </is>
-      </c>
-      <c r="V19" s="2" t="inlineStr">
-        <is>
-          <t>4,23%</t>
-        </is>
-      </c>
       <c r="W19" s="2" t="inlineStr">
         <is>
-          <t>6,19%</t>
+          <t>3,71%</t>
         </is>
       </c>
     </row>
@@ -10096,107 +10096,107 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>243</t>
+          <t>311</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>102608</t>
+          <t>99772</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>88738</t>
+          <t>87539</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>118181</t>
+          <t>114418</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>15,08%</t>
+          <t>13,37%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>13,04%</t>
+          <t>11,73%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>17,37%</t>
+          <t>15,34%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>353</t>
+          <t>460</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>144480</t>
+          <t>132178</t>
         </is>
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>128275</t>
+          <t>118986</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>162652</t>
+          <t>147340</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
         <is>
-          <t>19,06%</t>
+          <t>16,12%</t>
         </is>
       </c>
       <c r="O20" s="2" t="inlineStr">
         <is>
-          <t>16,92%</t>
+          <t>14,51%</t>
         </is>
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>21,45%</t>
+          <t>17,97%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
         <is>
-          <t>596</t>
+          <t>771</t>
         </is>
       </c>
       <c r="R20" s="2" t="inlineStr">
         <is>
-          <t>247089</t>
+          <t>231949</t>
         </is>
       </c>
       <c r="S20" s="2" t="inlineStr">
         <is>
-          <t>224902</t>
+          <t>211658</t>
         </is>
       </c>
       <c r="T20" s="2" t="inlineStr">
         <is>
-          <t>269989</t>
+          <t>251339</t>
         </is>
       </c>
       <c r="U20" s="2" t="inlineStr">
         <is>
-          <t>17,18%</t>
+          <t>14,81%</t>
         </is>
       </c>
       <c r="V20" s="2" t="inlineStr">
         <is>
-          <t>15,63%</t>
+          <t>13,52%</t>
         </is>
       </c>
       <c r="W20" s="2" t="inlineStr">
         <is>
-          <t>18,77%</t>
+          <t>16,05%</t>
         </is>
       </c>
     </row>
@@ -10209,107 +10209,107 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>704</t>
+          <t>893</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>292509</t>
+          <t>302160</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>273257</t>
+          <t>283393</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>311962</t>
+          <t>321934</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>42,99%</t>
+          <t>40,5%</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>40,16%</t>
+          <t>37,98%</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>45,85%</t>
+          <t>43,15%</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>829</t>
+          <t>1027</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>342780</t>
+          <t>331183</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>324706</t>
+          <t>312037</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>365221</t>
+          <t>351403</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>45,21%</t>
+          <t>40,4%</t>
         </is>
       </c>
       <c r="O21" s="2" t="inlineStr">
         <is>
-          <t>42,83%</t>
+          <t>38,06%</t>
         </is>
       </c>
       <c r="P21" s="2" t="inlineStr">
         <is>
-          <t>48,17%</t>
+          <t>42,86%</t>
         </is>
       </c>
       <c r="Q21" s="2" t="inlineStr">
         <is>
-          <t>1533</t>
+          <t>1920</t>
         </is>
       </c>
       <c r="R21" s="2" t="inlineStr">
         <is>
-          <t>635289</t>
+          <t>633342</t>
         </is>
       </c>
       <c r="S21" s="2" t="inlineStr">
         <is>
-          <t>606572</t>
+          <t>607521</t>
         </is>
       </c>
       <c r="T21" s="2" t="inlineStr">
         <is>
-          <t>664818</t>
+          <t>663260</t>
         </is>
       </c>
       <c r="U21" s="2" t="inlineStr">
         <is>
-          <t>44,16%</t>
+          <t>40,45%</t>
         </is>
       </c>
       <c r="V21" s="2" t="inlineStr">
         <is>
-          <t>42,16%</t>
+          <t>38,8%</t>
         </is>
       </c>
       <c r="W21" s="2" t="inlineStr">
         <is>
-          <t>46,21%</t>
+          <t>42,36%</t>
         </is>
       </c>
     </row>
@@ -10322,107 +10322,107 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>630</t>
+          <t>819</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>261844</t>
+          <t>326533</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>243085</t>
+          <t>305851</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>282438</t>
+          <t>345200</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>38,48%</t>
+          <t>43,77%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>35,73%</t>
+          <t>40,99%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>41,51%</t>
+          <t>46,27%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>586</t>
+          <t>850</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>221088</t>
+          <t>325839</t>
         </is>
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>203432</t>
+          <t>306339</t>
         </is>
       </c>
       <c r="M22" s="2" t="inlineStr">
         <is>
-          <t>239759</t>
+          <t>348103</t>
         </is>
       </c>
       <c r="N22" s="2" t="inlineStr">
         <is>
-          <t>29,16%</t>
+          <t>39,75%</t>
         </is>
       </c>
       <c r="O22" s="2" t="inlineStr">
         <is>
-          <t>26,83%</t>
+          <t>37,37%</t>
         </is>
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>31,62%</t>
+          <t>42,46%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
         <is>
-          <t>1216</t>
+          <t>1669</t>
         </is>
       </c>
       <c r="R22" s="2" t="inlineStr">
         <is>
-          <t>482932</t>
+          <t>652372</t>
         </is>
       </c>
       <c r="S22" s="2" t="inlineStr">
         <is>
-          <t>457178</t>
+          <t>623761</t>
         </is>
       </c>
       <c r="T22" s="2" t="inlineStr">
         <is>
-          <t>510496</t>
+          <t>679878</t>
         </is>
       </c>
       <c r="U22" s="2" t="inlineStr">
         <is>
-          <t>33,57%</t>
+          <t>41,66%</t>
         </is>
       </c>
       <c r="V22" s="2" t="inlineStr">
         <is>
-          <t>31,78%</t>
+          <t>39,83%</t>
         </is>
       </c>
       <c r="W22" s="2" t="inlineStr">
         <is>
-          <t>35,49%</t>
+          <t>43,42%</t>
         </is>
       </c>
     </row>
@@ -10435,22 +10435,22 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>1634</t>
+          <t>2089</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>680428</t>
+          <t>746081</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>680428</t>
+          <t>746081</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>680428</t>
+          <t>746081</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
@@ -10470,22 +10470,22 @@
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>1868</t>
+          <t>2443</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>758177</t>
+          <t>819818</t>
         </is>
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>758177</t>
+          <t>819818</t>
         </is>
       </c>
       <c r="M23" s="2" t="inlineStr">
         <is>
-          <t>758177</t>
+          <t>819818</t>
         </is>
       </c>
       <c r="N23" s="2" t="inlineStr">
@@ -10505,22 +10505,22 @@
       </c>
       <c r="Q23" s="2" t="inlineStr">
         <is>
-          <t>3502</t>
+          <t>4532</t>
         </is>
       </c>
       <c r="R23" s="2" t="inlineStr">
         <is>
-          <t>1438605</t>
+          <t>1565899</t>
         </is>
       </c>
       <c r="S23" s="2" t="inlineStr">
         <is>
-          <t>1438605</t>
+          <t>1565899</t>
         </is>
       </c>
       <c r="T23" s="2" t="inlineStr">
         <is>
-          <t>1438605</t>
+          <t>1565899</t>
         </is>
       </c>
       <c r="U23" s="2" t="inlineStr">
